--- a/targets_512grains512/exp_curveDB.xlsx
+++ b/targets_512grains512/exp_curveDB.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Desktop\Crystal-Plasticity-Project\targets_512grains512\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE340EE3-FB06-4AB6-A87F-0BE5FAB9091E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="10752" yWindow="0" windowWidth="12180" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="DB512"/>
+    <sheet name="DB512" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="32">
   <si>
     <t>DB512_1</t>
   </si>
@@ -96,15 +102,30 @@
   <si>
     <t>True strain, -</t>
   </si>
+  <si>
+    <t>DB1-DB3</t>
+  </si>
+  <si>
+    <t>stage 1: fit yeild points</t>
+  </si>
+  <si>
+    <t>stage 2: Hardening parameter</t>
+  </si>
+  <si>
+    <t>τ0</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,8 +145,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,7 +162,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFc6e0b4"/>
+        <fgColor rgb="FFC6E0B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -155,16 +195,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -172,59 +212,64 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -235,10 +280,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -276,71 +321,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -368,7 +413,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -391,11 +436,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -404,13 +449,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -420,7 +465,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -429,7 +474,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -438,7 +483,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -446,10 +491,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -514,42 +559,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:W183"/>
+  <dimension ref="A1:AD183"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AD14" sqref="AD14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="13" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="13" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="14" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="14" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="6" width="14.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="14.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="14.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5546875" customWidth="1"/>
+    <col min="27" max="27" width="14.6640625" customWidth="1"/>
+    <col min="28" max="28" width="17.88671875" customWidth="1"/>
+    <col min="29" max="29" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -580,7 +620,7 @@
       <c r="V1" s="4"/>
       <c r="W1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -634,8 +674,20 @@
       <c r="W2" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="Y2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="15"/>
+    </row>
+    <row r="3" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -685,8 +737,22 @@
         <v>0.01</v>
       </c>
       <c r="W3" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD3" s="15"/>
+    </row>
+    <row r="4" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -736,8 +802,24 @@
         <v>0.05</v>
       </c>
       <c r="W4" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="Y4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="AB4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD4" s="15"/>
+    </row>
+    <row r="5" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -787,8 +869,24 @@
         <v>0.05</v>
       </c>
       <c r="W5" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="Y5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA5" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AB5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD5" s="15"/>
+    </row>
+    <row r="6" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -838,8 +936,24 @@
         <v>5</v>
       </c>
       <c r="W6" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="Y6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA6" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AB6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD6" s="15"/>
+    </row>
+    <row r="7" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -889,8 +1003,22 @@
         <v>1</v>
       </c>
       <c r="W7" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="Y7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z7" s="18">
+        <v>40</v>
+      </c>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC7" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="15"/>
+    </row>
+    <row r="8" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -940,8 +1068,22 @@
         <v>1</v>
       </c>
       <c r="W8" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="Y8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z8" s="18">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC8" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="15"/>
+    </row>
+    <row r="9" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -965,8 +1107,22 @@
       <c r="U9" s="2"/>
       <c r="V9" s="4"/>
       <c r="W9" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="Y9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z9" s="18">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC9" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="15"/>
+    </row>
+    <row r="10" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1003,7 +1159,7 @@
       <c r="V10" s="4"/>
       <c r="W10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1011,7 +1167,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="11">
-        <v>0.0000016017606294</v>
+        <v>1.6017606294E-6</v>
       </c>
       <c r="H11" s="10">
         <v>0</v>
@@ -1021,7 +1177,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="11">
-        <v>0.0000016017606294</v>
+        <v>1.6017606294E-6</v>
       </c>
       <c r="N11" s="10">
         <v>0</v>
@@ -1031,7 +1187,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="11">
-        <v>0.0000016017606294</v>
+        <v>1.6017606294E-6</v>
       </c>
       <c r="T11" s="10">
         <v>0</v>
@@ -1040,7 +1196,7 @@
       <c r="V11" s="4"/>
       <c r="W11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1048,36 +1204,36 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="9">
-        <v>40691591.3406</v>
+        <v>40691591.340599999</v>
       </c>
       <c r="H12" s="9">
-        <v>0.000173151622874</v>
+        <v>1.7315162287399999E-4</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="4"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="9">
-        <v>40691591.3406</v>
+        <v>40691591.340599999</v>
       </c>
       <c r="N12" s="9">
-        <v>0.000173151622874</v>
+        <v>1.7315162287399999E-4</v>
       </c>
       <c r="O12" s="9"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="9">
-        <v>40691591.3406</v>
+        <v>40691591.340599999</v>
       </c>
       <c r="T12" s="9">
-        <v>0.000173151622874</v>
+        <v>1.7315162287399999E-4</v>
       </c>
       <c r="U12" s="9"/>
       <c r="V12" s="4"/>
       <c r="W12" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1088,7 +1244,7 @@
         <v>81418700.8125</v>
       </c>
       <c r="H13" s="9">
-        <v>0.000346290733205</v>
+        <v>3.4629073320499999E-4</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="4"/>
@@ -1098,7 +1254,7 @@
         <v>81418700.8125</v>
       </c>
       <c r="N13" s="9">
-        <v>0.000346290733205</v>
+        <v>3.4629073320499999E-4</v>
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="4"/>
@@ -1108,13 +1264,13 @@
         <v>81418700.8125</v>
       </c>
       <c r="T13" s="9">
-        <v>0.000346290733205</v>
+        <v>3.4629073320499999E-4</v>
       </c>
       <c r="U13" s="9"/>
       <c r="V13" s="4"/>
       <c r="W13" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1125,7 +1281,7 @@
         <v>122181344.212</v>
       </c>
       <c r="H14" s="9">
-        <v>0.000519417282621</v>
+        <v>5.1941728262100005E-4</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="4"/>
@@ -1135,7 +1291,7 @@
         <v>122181344.212</v>
       </c>
       <c r="N14" s="9">
-        <v>0.000519417282621</v>
+        <v>5.1941728262100005E-4</v>
       </c>
       <c r="O14" s="9"/>
       <c r="P14" s="4"/>
@@ -1145,13 +1301,13 @@
         <v>122181344.212</v>
       </c>
       <c r="T14" s="9">
-        <v>0.000519417282621</v>
+        <v>5.1941728262100005E-4</v>
       </c>
       <c r="U14" s="9"/>
       <c r="V14" s="4"/>
       <c r="W14" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row r="15" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1159,36 +1315,36 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="9">
-        <v>162977602.251</v>
+        <v>162977602.25099999</v>
       </c>
       <c r="H15" s="9">
-        <v>0.000692532639027</v>
+        <v>6.9253263902699998E-4</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="4"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="9">
-        <v>162979535.43</v>
+        <v>162979535.43000001</v>
       </c>
       <c r="N15" s="9">
-        <v>0.00069253131306</v>
+        <v>6.9253131306000004E-4</v>
       </c>
       <c r="O15" s="9"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="9">
-        <v>161260616.221</v>
+        <v>161260616.22099999</v>
       </c>
       <c r="T15" s="9">
-        <v>0.000693686377597</v>
+        <v>6.93686377597E-4</v>
       </c>
       <c r="U15" s="9"/>
       <c r="V15" s="4"/>
       <c r="W15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1196,20 +1352,20 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="9">
-        <v>202988290.826</v>
+        <v>202988290.82600001</v>
       </c>
       <c r="H16" s="9">
-        <v>0.000866187108535</v>
+        <v>8.6618710853500003E-4</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="4"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="9">
-        <v>203799851.707</v>
+        <v>203799851.70699999</v>
       </c>
       <c r="N16" s="9">
-        <v>0.000865641977984</v>
+        <v>8.6564197798399999E-4</v>
       </c>
       <c r="O16" s="9"/>
       <c r="P16" s="4"/>
@@ -1219,13 +1375,13 @@
         <v>182164311.398</v>
       </c>
       <c r="T16" s="9">
-        <v>0.000880325865353</v>
+        <v>8.8032586535300003E-4</v>
       </c>
       <c r="U16" s="9"/>
       <c r="V16" s="4"/>
       <c r="W16" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1233,10 +1389,10 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="9">
-        <v>232541818.422</v>
+        <v>232541818.42199999</v>
       </c>
       <c r="H17" s="9">
-        <v>0.00104687720037</v>
+        <v>1.04687720037E-3</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="4"/>
@@ -1246,23 +1402,23 @@
         <v>243702714.292</v>
       </c>
       <c r="N17" s="9">
-        <v>0.00103937899661</v>
+        <v>1.0393789966099999E-3</v>
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="9">
-        <v>190410893.874</v>
+        <v>190410893.87400001</v>
       </c>
       <c r="T17" s="9">
-        <v>0.00107583556939</v>
+        <v>1.07583556939E-3</v>
       </c>
       <c r="U17" s="9"/>
       <c r="V17" s="4"/>
       <c r="W17" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row r="18" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1270,36 +1426,36 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="9">
-        <v>246476918.538</v>
+        <v>246476918.53799999</v>
       </c>
       <c r="H18" s="9">
-        <v>0.00123822405051</v>
+        <v>1.2382240505100001E-3</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="4"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="9">
-        <v>275180544.182</v>
+        <v>275180544.18199998</v>
       </c>
       <c r="N18" s="9">
-        <v>0.00121876669713</v>
+        <v>1.21876669713E-3</v>
       </c>
       <c r="O18" s="9"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="9">
-        <v>195478451.415</v>
+        <v>195478451.41499999</v>
       </c>
       <c r="T18" s="9">
-        <v>0.00127363876912</v>
+        <v>1.27363876912E-3</v>
       </c>
       <c r="U18" s="9"/>
       <c r="V18" s="4"/>
       <c r="W18" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row r="19" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1307,36 +1463,36 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="9">
-        <v>253689918.293</v>
+        <v>253689918.29300001</v>
       </c>
       <c r="H19" s="9">
-        <v>0.0014342872856</v>
+        <v>1.4342872856E-3</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="4"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="9">
-        <v>292574139.256</v>
+        <v>292574139.25599998</v>
       </c>
       <c r="N19" s="9">
-        <v>0.00140769544342</v>
+        <v>1.40769544342E-3</v>
       </c>
       <c r="O19" s="9"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="9">
-        <v>199213412.427</v>
+        <v>199213412.42699999</v>
       </c>
       <c r="T19" s="9">
-        <v>0.00147233575306</v>
+        <v>1.47233575306E-3</v>
       </c>
       <c r="U19" s="9"/>
       <c r="V19" s="4"/>
       <c r="W19" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row r="20" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1344,36 +1500,36 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="9">
-        <v>258624194.902</v>
+        <v>258624194.90200001</v>
       </c>
       <c r="H20" s="9">
-        <v>0.00163197639776</v>
+        <v>1.6319763977599999E-3</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="4"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="9">
-        <v>302012851.849</v>
+        <v>302012851.84899998</v>
       </c>
       <c r="N20" s="9">
-        <v>0.00160213822977</v>
+        <v>1.60213822977E-3</v>
       </c>
       <c r="O20" s="9"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="9">
-        <v>202236622.393</v>
+        <v>202236622.39300001</v>
       </c>
       <c r="T20" s="9">
-        <v>0.00167121569595</v>
+        <v>1.6712156959500001E-3</v>
       </c>
       <c r="U20" s="9"/>
       <c r="V20" s="4"/>
       <c r="W20" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row r="21" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1381,36 +1537,36 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="9">
-        <v>262507644.404</v>
+        <v>262507644.40400001</v>
       </c>
       <c r="H21" s="9">
-        <v>0.00183038411785</v>
+        <v>1.8303841178499999E-3</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="4"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="9">
-        <v>308379412.665</v>
+        <v>308379412.66500002</v>
       </c>
       <c r="N21" s="9">
-        <v>0.00179876349434</v>
+        <v>1.79876349434E-3</v>
       </c>
       <c r="O21" s="9"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="9">
-        <v>204806327.992</v>
+        <v>204806327.99200001</v>
       </c>
       <c r="T21" s="9">
-        <v>0.00187017444384</v>
+        <v>1.87017444384E-3</v>
       </c>
       <c r="U21" s="9"/>
       <c r="V21" s="4"/>
       <c r="W21" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row r="22" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1418,36 +1574,36 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="9">
-        <v>265752873.049</v>
+        <v>265752873.04899999</v>
       </c>
       <c r="H22" s="9">
-        <v>0.00202913292605</v>
+        <v>2.02913292605E-3</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="4"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="9">
-        <v>313463990.605</v>
+        <v>313463990.60500002</v>
       </c>
       <c r="N22" s="9">
-        <v>0.00199630420664</v>
+        <v>1.9963042066400002E-3</v>
       </c>
       <c r="O22" s="9"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="9">
-        <v>207055907.429</v>
+        <v>207055907.42899999</v>
       </c>
       <c r="T22" s="9">
-        <v>0.00206924109585</v>
+        <v>2.0692410958500001E-3</v>
       </c>
       <c r="U22" s="9"/>
       <c r="V22" s="4"/>
       <c r="W22" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row r="23" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1455,36 +1611,36 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="9">
-        <v>268586093.404</v>
+        <v>268586093.40399998</v>
       </c>
       <c r="H23" s="9">
-        <v>0.00222801730109</v>
+        <v>2.2280173010899998E-3</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="4"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="9">
-        <v>317841977.596</v>
+        <v>317841977.59600002</v>
       </c>
       <c r="N23" s="9">
-        <v>0.0021943222046</v>
+        <v>2.1943222046E-3</v>
       </c>
       <c r="O23" s="9"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="9">
-        <v>209131101.196</v>
+        <v>209131101.19600001</v>
       </c>
       <c r="T23" s="9">
-        <v>0.00226827498479</v>
+        <v>2.2682749847899998E-3</v>
       </c>
       <c r="U23" s="9"/>
       <c r="V23" s="4"/>
       <c r="W23" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    <row r="24" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1492,10 +1648,10 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="9">
-        <v>271123486.521</v>
+        <v>271123486.52100003</v>
       </c>
       <c r="H24" s="9">
-        <v>0.00242696194369</v>
+        <v>2.4269619436899999E-3</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="4"/>
@@ -1505,7 +1661,7 @@
         <v>321757281.491</v>
       </c>
       <c r="N24" s="9">
-        <v>0.00239259175668</v>
+        <v>2.3925917566799998E-3</v>
       </c>
       <c r="O24" s="9"/>
       <c r="P24" s="4"/>
@@ -1515,13 +1671,13 @@
         <v>211069792.741</v>
       </c>
       <c r="T24" s="9">
-        <v>0.0024672548973</v>
+        <v>2.4672548972999998E-3</v>
       </c>
       <c r="U24" s="9"/>
       <c r="V24" s="4"/>
       <c r="W24" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    <row r="25" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1529,10 +1685,10 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="9">
-        <v>273444275.293</v>
+        <v>273444275.29299998</v>
       </c>
       <c r="H25" s="9">
-        <v>0.00262593127276</v>
+        <v>2.6259312727600001E-3</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="4"/>
@@ -1542,23 +1698,23 @@
         <v>325350887.074</v>
       </c>
       <c r="N25" s="9">
-        <v>0.00259097177229</v>
+        <v>2.5909717722899998E-3</v>
       </c>
       <c r="O25" s="9"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="9">
-        <v>212883637.471</v>
+        <v>212883637.47099999</v>
       </c>
       <c r="T25" s="9">
-        <v>0.00266620797022</v>
+        <v>2.6662079702200001E-3</v>
       </c>
       <c r="U25" s="9"/>
       <c r="V25" s="4"/>
       <c r="W25" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+    <row r="26" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1566,36 +1722,36 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="9">
-        <v>275617782.41</v>
+        <v>275617782.41000003</v>
       </c>
       <c r="H26" s="9">
-        <v>0.00282489216963</v>
+        <v>2.82489216963E-3</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="4"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="9">
-        <v>328705577.626</v>
+        <v>328705577.62599999</v>
       </c>
       <c r="N26" s="9">
-        <v>0.00278939450598</v>
+        <v>2.7893945059799998E-3</v>
       </c>
       <c r="O26" s="9"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="9">
-        <v>214599670.15</v>
+        <v>214599670.15000001</v>
       </c>
       <c r="T26" s="9">
-        <v>0.00286512311309</v>
+        <v>2.8651231130899998E-3</v>
       </c>
       <c r="U26" s="9"/>
       <c r="V26" s="4"/>
       <c r="W26" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+    <row r="27" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1603,36 +1759,36 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="9">
-        <v>277682669.702</v>
+        <v>277682669.70200002</v>
       </c>
       <c r="H27" s="9">
-        <v>0.00302382869108</v>
+        <v>3.0238286910800002E-3</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="4"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="9">
-        <v>331870327.307</v>
+        <v>331870327.30699998</v>
       </c>
       <c r="N27" s="9">
-        <v>0.00298783340095</v>
+        <v>2.9878334009499998E-3</v>
       </c>
       <c r="O27" s="9"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="9">
-        <v>216244993.938</v>
+        <v>216244993.93799999</v>
       </c>
       <c r="T27" s="9">
-        <v>0.00306401631018</v>
+        <v>3.0640163101799999E-3</v>
       </c>
       <c r="U27" s="9"/>
       <c r="V27" s="4"/>
       <c r="W27" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+    <row r="28" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1640,20 +1796,20 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="9">
-        <v>279657092.947</v>
+        <v>279657092.94700003</v>
       </c>
       <c r="H28" s="9">
-        <v>0.00322273249111</v>
+        <v>3.2227324911100002E-3</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="4"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="9">
-        <v>334888489.467</v>
+        <v>334888489.46700001</v>
       </c>
       <c r="N28" s="9">
-        <v>0.00318627088723</v>
+        <v>3.1862708872300001E-3</v>
       </c>
       <c r="O28" s="9"/>
       <c r="P28" s="4"/>
@@ -1663,13 +1819,13 @@
         <v>217835064.005</v>
       </c>
       <c r="T28" s="9">
-        <v>0.00326291334866</v>
+        <v>3.2629133486599998E-3</v>
       </c>
       <c r="U28" s="9"/>
       <c r="V28" s="4"/>
       <c r="W28" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+    <row r="29" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1677,10 +1833,10 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="9">
-        <v>281553824.896</v>
+        <v>281553824.89600003</v>
       </c>
       <c r="H29" s="9">
-        <v>0.00342159800444</v>
+        <v>3.4215980044400001E-3</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="4"/>
@@ -1690,7 +1846,7 @@
         <v>337800561.333</v>
       </c>
       <c r="N29" s="9">
-        <v>0.00338468814996</v>
+        <v>3.38468814996E-3</v>
       </c>
       <c r="O29" s="9"/>
       <c r="P29" s="4"/>
@@ -1700,13 +1856,13 @@
         <v>219371767.109</v>
       </c>
       <c r="T29" s="9">
-        <v>0.00346181593929</v>
+        <v>3.46181593929E-3</v>
       </c>
       <c r="U29" s="9"/>
       <c r="V29" s="4"/>
       <c r="W29" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+    <row r="30" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1717,33 +1873,33 @@
         <v>283385415.023</v>
       </c>
       <c r="H30" s="9">
-        <v>0.00362042277623</v>
+        <v>3.6204227762299999E-3</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="9">
-        <v>340632245.717</v>
+        <v>340632245.71700001</v>
       </c>
       <c r="N30" s="9">
-        <v>0.00358307366726</v>
+        <v>3.5830736672599998E-3</v>
       </c>
       <c r="O30" s="9"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="9">
-        <v>220873385.749</v>
+        <v>220873385.74900001</v>
       </c>
       <c r="T30" s="9">
-        <v>0.00366069393861</v>
+        <v>3.6606939386100001E-3</v>
       </c>
       <c r="U30" s="9"/>
       <c r="V30" s="4"/>
       <c r="W30" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+    <row r="31" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1754,17 +1910,17 @@
         <v>285163906.278</v>
       </c>
       <c r="H31" s="9">
-        <v>0.00381920738039</v>
+        <v>3.8192073803900001E-3</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="4"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="9">
-        <v>343396527.131</v>
+        <v>343396527.13099998</v>
       </c>
       <c r="N31" s="9">
-        <v>0.00378142311224</v>
+        <v>3.7814231122400002E-3</v>
       </c>
       <c r="O31" s="9"/>
       <c r="P31" s="4"/>
@@ -1774,13 +1930,13 @@
         <v>222344913.579</v>
       </c>
       <c r="T31" s="9">
-        <v>0.00385956094861</v>
+        <v>3.8595609486100002E-3</v>
       </c>
       <c r="U31" s="9"/>
       <c r="V31" s="4"/>
       <c r="W31" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+    <row r="32" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1788,20 +1944,20 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="9">
-        <v>289435281.959</v>
+        <v>289435281.95899999</v>
       </c>
       <c r="H32" s="9">
-        <v>0.00431601346636</v>
+        <v>4.3160134663599997E-3</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="4"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="9">
-        <v>350060992.811</v>
+        <v>350060992.81099999</v>
       </c>
       <c r="N32" s="9">
-        <v>0.00427712105504</v>
+        <v>4.2771210550400004E-3</v>
       </c>
       <c r="O32" s="9"/>
       <c r="P32" s="4"/>
@@ -1811,13 +1967,13 @@
         <v>225895956.009</v>
       </c>
       <c r="T32" s="9">
-        <v>0.00435665071962</v>
+        <v>4.35665071962E-3</v>
       </c>
       <c r="U32" s="9"/>
       <c r="V32" s="4"/>
       <c r="W32" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+    <row r="33" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1825,20 +1981,20 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="9">
-        <v>293526132.038</v>
+        <v>293526132.03799999</v>
       </c>
       <c r="H33" s="9">
-        <v>0.0048126139904</v>
+        <v>4.8126139904000002E-3</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="4"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="9">
-        <v>356452674.893</v>
+        <v>356452674.89300001</v>
       </c>
       <c r="N33" s="9">
-        <v>0.00477255767463</v>
+        <v>4.7725576746299996E-3</v>
       </c>
       <c r="O33" s="9"/>
       <c r="P33" s="4"/>
@@ -1848,13 +2004,13 @@
         <v>229288621.926</v>
       </c>
       <c r="T33" s="9">
-        <v>0.00485366509971</v>
+        <v>4.8536650997099999E-3</v>
       </c>
       <c r="U33" s="9"/>
       <c r="V33" s="4"/>
       <c r="W33" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+    <row r="34" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1862,10 +2018,10 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="9">
-        <v>297482100.455</v>
+        <v>297482100.45499998</v>
       </c>
       <c r="H34" s="9">
-        <v>0.00530902573279</v>
+        <v>5.3090257327899999E-3</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="4"/>
@@ -1875,23 +2031,23 @@
         <v>362657039.94</v>
       </c>
       <c r="N34" s="9">
-        <v>0.00526774893544</v>
+        <v>5.2677489354399998E-3</v>
       </c>
       <c r="O34" s="9"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="9">
-        <v>232551792.747</v>
+        <v>232551792.74700001</v>
       </c>
       <c r="T34" s="9">
-        <v>0.00535053340063</v>
+        <v>5.3505334006299999E-3</v>
       </c>
       <c r="U34" s="9"/>
       <c r="V34" s="4"/>
       <c r="W34" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+    <row r="35" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1902,33 +2058,33 @@
         <v>301325532.06</v>
       </c>
       <c r="H35" s="9">
-        <v>0.00580526122126</v>
+        <v>5.8052612212599998E-3</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="4"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="9">
-        <v>368724713.841</v>
+        <v>368724713.84100002</v>
       </c>
       <c r="N35" s="9">
-        <v>0.00576270437041</v>
+        <v>5.76270437041E-3</v>
       </c>
       <c r="O35" s="9"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="9">
-        <v>235700825.798</v>
+        <v>235700825.79800001</v>
       </c>
       <c r="T35" s="9">
-        <v>0.00584713010769</v>
+        <v>5.84713010769E-3</v>
       </c>
       <c r="U35" s="9"/>
       <c r="V35" s="4"/>
       <c r="W35" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+    <row r="36" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1936,10 +2092,10 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="9">
-        <v>305076006.998</v>
+        <v>305076006.99800003</v>
       </c>
       <c r="H36" s="9">
-        <v>0.00630131058886</v>
+        <v>6.3013105888599999E-3</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="4"/>
@@ -1949,23 +2105,23 @@
         <v>374684011.847</v>
       </c>
       <c r="N36" s="9">
-        <v>0.00625743299514</v>
+        <v>6.2574329951400002E-3</v>
       </c>
       <c r="O36" s="9"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="9">
-        <v>238753380.02</v>
+        <v>238753380.02000001</v>
       </c>
       <c r="T36" s="9">
-        <v>0.00634340375449</v>
+        <v>6.3434037544900001E-3</v>
       </c>
       <c r="U36" s="9"/>
       <c r="V36" s="4"/>
       <c r="W36" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+    <row r="37" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1976,7 +2132,7 @@
         <v>308748179.333</v>
       </c>
       <c r="H37" s="9">
-        <v>0.00679715741739</v>
+        <v>6.79715741739E-3</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="4"/>
@@ -1986,23 +2142,23 @@
         <v>380551317.699</v>
       </c>
       <c r="N37" s="9">
-        <v>0.00675194950158</v>
+        <v>6.7519495015799999E-3</v>
       </c>
       <c r="O37" s="9"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="9">
-        <v>241726852.893</v>
+        <v>241726852.89300001</v>
       </c>
       <c r="T37" s="9">
-        <v>0.00683945347339</v>
+        <v>6.8394534733899996E-3</v>
       </c>
       <c r="U37" s="9"/>
       <c r="V37" s="4"/>
       <c r="W37" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+    <row r="38" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2013,33 +2169,33 @@
         <v>312350742.352</v>
       </c>
       <c r="H38" s="9">
-        <v>0.00729278885946</v>
+        <v>7.2927888594600003E-3</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="4"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="9">
-        <v>386338047.622</v>
+        <v>386338047.62199998</v>
       </c>
       <c r="N38" s="9">
-        <v>0.00724626101165</v>
+        <v>7.2462610116499999E-3</v>
       </c>
       <c r="O38" s="9"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="9">
-        <v>244624895.261</v>
+        <v>244624895.26100001</v>
       </c>
       <c r="T38" s="9">
-        <v>0.00733529348233</v>
+        <v>7.3352934823300003E-3</v>
       </c>
       <c r="U38" s="9"/>
       <c r="V38" s="4"/>
       <c r="W38" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+    <row r="39" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2047,20 +2203,20 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="9">
-        <v>315889793.181</v>
+        <v>315889793.18099999</v>
       </c>
       <c r="H39" s="9">
-        <v>0.00778819774975</v>
+        <v>7.7881977497500001E-3</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="4"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="9">
-        <v>392053142.216</v>
+        <v>392053142.21600002</v>
       </c>
       <c r="N39" s="9">
-        <v>0.00774036803237</v>
+        <v>7.74036803237E-3</v>
       </c>
       <c r="O39" s="9"/>
       <c r="P39" s="4"/>
@@ -2070,13 +2226,13 @@
         <v>247450843.169</v>
       </c>
       <c r="T39" s="9">
-        <v>0.00783092591679</v>
+        <v>7.8309259167900006E-3</v>
       </c>
       <c r="U39" s="9"/>
       <c r="V39" s="4"/>
       <c r="W39" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+    <row r="40" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2084,36 +2240,36 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="9">
-        <v>319370466.467</v>
+        <v>319370466.46700001</v>
       </c>
       <c r="H40" s="9">
-        <v>0.00828338257324</v>
+        <v>8.2833825732399995E-3</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="4"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="9">
-        <v>397703842.332</v>
+        <v>397703842.33200002</v>
       </c>
       <c r="N40" s="9">
-        <v>0.00823426744253</v>
+        <v>8.2342674425300005E-3</v>
       </c>
       <c r="O40" s="9"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="9">
-        <v>250208670.791</v>
+        <v>250208670.79100001</v>
       </c>
       <c r="T40" s="9">
-        <v>0.00832633911435</v>
+        <v>8.3263391143500003E-3</v>
       </c>
       <c r="U40" s="9"/>
       <c r="V40" s="4"/>
       <c r="W40" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+    <row r="41" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2124,33 +2280,33 @@
         <v>322796616.014</v>
       </c>
       <c r="H41" s="9">
-        <v>0.00877834413638</v>
+        <v>8.7783441363799997E-3</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="4"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="9">
-        <v>403295657.099</v>
+        <v>403295657.09899998</v>
       </c>
       <c r="N41" s="9">
-        <v>0.00872795396551</v>
+        <v>8.7279539655100002E-3</v>
       </c>
       <c r="O41" s="9"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="9">
-        <v>252899600.423</v>
+        <v>252899600.42300001</v>
       </c>
       <c r="T41" s="9">
-        <v>0.0088215330103</v>
+        <v>8.8215330102999999E-3</v>
       </c>
       <c r="U41" s="9"/>
       <c r="V41" s="4"/>
       <c r="W41" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+    <row r="42" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2158,10 +2314,10 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="9">
-        <v>326170844.933</v>
+        <v>326170844.93300003</v>
       </c>
       <c r="H42" s="9">
-        <v>0.00927308294476</v>
+        <v>9.2730829447599996E-3</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="4"/>
@@ -2171,7 +2327,7 @@
         <v>408832642.62</v>
       </c>
       <c r="N42" s="9">
-        <v>0.00922142218815</v>
+        <v>9.2214221881500007E-3</v>
       </c>
       <c r="O42" s="9"/>
       <c r="P42" s="4"/>
@@ -2181,13 +2337,13 @@
         <v>255526398.016</v>
       </c>
       <c r="T42" s="9">
-        <v>0.00931650354421</v>
+        <v>9.3165035442100003E-3</v>
       </c>
       <c r="U42" s="9"/>
       <c r="V42" s="4"/>
       <c r="W42" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+    <row r="43" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2198,17 +2354,17 @@
         <v>329495167.495</v>
       </c>
       <c r="H43" s="9">
-        <v>0.00976759867274</v>
+        <v>9.7675986727399997E-3</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="4"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="9">
-        <v>414317857.052</v>
+        <v>414317857.05199999</v>
       </c>
       <c r="N43" s="9">
-        <v>0.00971466837922</v>
+        <v>9.7146683792200001E-3</v>
       </c>
       <c r="O43" s="9"/>
       <c r="P43" s="4"/>
@@ -2218,13 +2374,13 @@
         <v>258094167.417</v>
       </c>
       <c r="T43" s="9">
-        <v>0.00981125450861</v>
+        <v>9.8112545086099998E-3</v>
       </c>
       <c r="U43" s="9"/>
       <c r="V43" s="4"/>
       <c r="W43" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+    <row r="44" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2235,33 +2391,33 @@
         <v>332771399.495</v>
       </c>
       <c r="H44" s="9">
-        <v>0.0102618908804</v>
+        <v>1.02618908804E-2</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="4"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="9">
-        <v>419753921.757</v>
+        <v>419753921.75700003</v>
       </c>
       <c r="N44" s="9">
-        <v>0.0102076912467</v>
+        <v>1.02076912467E-2</v>
       </c>
       <c r="O44" s="9"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="9">
-        <v>260604622.894</v>
+        <v>260604622.89399999</v>
       </c>
       <c r="T44" s="9">
-        <v>0.0103058031796</v>
+        <v>1.03058031796E-2</v>
       </c>
       <c r="U44" s="9"/>
       <c r="V44" s="4"/>
       <c r="W44" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+    <row r="45" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2269,20 +2425,20 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="9">
-        <v>336001216.197</v>
+        <v>336001216.19700003</v>
       </c>
       <c r="H45" s="9">
-        <v>0.010755959329</v>
+        <v>1.0755959329E-2</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="4"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="9">
-        <v>425143301.803</v>
+        <v>425143301.80299997</v>
       </c>
       <c r="N45" s="9">
-        <v>0.010700491462</v>
+        <v>1.0700491462E-2</v>
       </c>
       <c r="O45" s="9"/>
       <c r="P45" s="4"/>
@@ -2292,13 +2448,13 @@
         <v>263059377.141</v>
       </c>
       <c r="T45" s="9">
-        <v>0.0108001362917</v>
+        <v>1.0800136291699999E-2</v>
       </c>
       <c r="U45" s="9"/>
       <c r="V45" s="4"/>
       <c r="W45" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+    <row r="46" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2309,7 +2465,7 @@
         <v>339186132.148</v>
       </c>
       <c r="H46" s="9">
-        <v>0.0112498038872</v>
+        <v>1.12498038872E-2</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="4"/>
@@ -2319,23 +2475,23 @@
         <v>430488178.745</v>
       </c>
       <c r="N46" s="9">
-        <v>0.0111930703272</v>
+        <v>1.1193070327199999E-2</v>
       </c>
       <c r="O46" s="9"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="9">
-        <v>265461234.085</v>
+        <v>265461234.08500001</v>
       </c>
       <c r="T46" s="9">
-        <v>0.0112942464687</v>
+        <v>1.12942464687E-2</v>
       </c>
       <c r="U46" s="9"/>
       <c r="V46" s="4"/>
       <c r="W46" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+    <row r="47" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2343,36 +2499,36 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="9">
-        <v>342327527.743</v>
+        <v>342327527.74299997</v>
       </c>
       <c r="H47" s="9">
-        <v>0.0117434245787</v>
+        <v>1.17434245787E-2</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="4"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="9">
-        <v>435790368.253</v>
+        <v>435790368.25300002</v>
       </c>
       <c r="N47" s="9">
-        <v>0.011685428657</v>
+        <v>1.1685428657000001E-2</v>
       </c>
       <c r="O47" s="9"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="9">
-        <v>267812075.232</v>
+        <v>267812075.23199999</v>
       </c>
       <c r="T47" s="9">
-        <v>0.0117881457316</v>
+        <v>1.1788145731599999E-2</v>
       </c>
       <c r="U47" s="9"/>
       <c r="V47" s="4"/>
       <c r="W47" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+    <row r="48" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2380,36 +2536,36 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="9">
-        <v>345426663.246</v>
+        <v>345426663.24599999</v>
       </c>
       <c r="H48" s="9">
-        <v>0.0122368216255</v>
+        <v>1.2236821625499999E-2</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="4"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="9">
-        <v>441051426.543</v>
+        <v>441051426.54299998</v>
       </c>
       <c r="N48" s="9">
-        <v>0.0121775664231</v>
+        <v>1.21775664231E-2</v>
       </c>
       <c r="O48" s="9"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="9">
-        <v>270114136.984</v>
+        <v>270114136.98400003</v>
       </c>
       <c r="T48" s="9">
-        <v>0.0122818324967</v>
+        <v>1.22818324967E-2</v>
       </c>
       <c r="U48" s="9"/>
       <c r="V48" s="4"/>
       <c r="W48" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+    <row r="49" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2420,33 +2576,33 @@
         <v>348484694.671</v>
       </c>
       <c r="H49" s="9">
-        <v>0.0127299953378</v>
+        <v>1.2729995337800001E-2</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="4"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="9">
-        <v>446272728.654</v>
+        <v>446272728.65399998</v>
       </c>
       <c r="N49" s="9">
-        <v>0.0126694829651</v>
+        <v>1.2669482965099999E-2</v>
       </c>
       <c r="O49" s="9"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="9">
-        <v>272369602.455</v>
+        <v>272369602.45499998</v>
       </c>
       <c r="T49" s="9">
-        <v>0.012775290867</v>
+        <v>1.2775290866999999E-2</v>
       </c>
       <c r="U49" s="9"/>
       <c r="V49" s="4"/>
       <c r="W49" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+    <row r="50" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2454,36 +2610,36 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="9">
-        <v>351502667.453</v>
+        <v>351502667.45300001</v>
       </c>
       <c r="H50" s="9">
-        <v>0.0132229459112</v>
+        <v>1.3222945911200001E-2</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="4"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="9">
-        <v>451455519.409</v>
+        <v>451455519.40899998</v>
       </c>
       <c r="N50" s="9">
-        <v>0.0131611772816</v>
+        <v>1.31611772816E-2</v>
       </c>
       <c r="O50" s="9"/>
       <c r="P50" s="4"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="9">
-        <v>274580675.157</v>
+        <v>274580675.15700001</v>
       </c>
       <c r="T50" s="9">
-        <v>0.0132685339213</v>
+        <v>1.3268533921300001E-2</v>
       </c>
       <c r="U50" s="9"/>
       <c r="V50" s="4"/>
       <c r="W50" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+    <row r="51" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2491,36 +2647,36 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="9">
-        <v>354481555.961</v>
+        <v>354481555.96100003</v>
       </c>
       <c r="H51" s="9">
-        <v>0.0137156732985</v>
+        <v>1.37156732985E-2</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="4"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="9">
-        <v>456600938.817</v>
+        <v>456600938.81699997</v>
       </c>
       <c r="N51" s="9">
-        <v>0.0136526482345</v>
+        <v>1.3652648234499999E-2</v>
       </c>
       <c r="O51" s="9"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="9">
-        <v>276747967.404</v>
+        <v>276747967.40399998</v>
       </c>
       <c r="T51" s="9">
-        <v>0.0137615803519</v>
+        <v>1.3761580351899999E-2</v>
       </c>
       <c r="U51" s="9"/>
       <c r="V51" s="4"/>
       <c r="W51" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
+    <row r="52" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2528,20 +2684,20 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="9">
-        <v>357422271.382</v>
+        <v>357422271.38200003</v>
       </c>
       <c r="H52" s="9">
-        <v>0.0142081772844</v>
+        <v>1.4208177284400001E-2</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="4"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="9">
-        <v>461709976.36</v>
+        <v>461709976.36000001</v>
       </c>
       <c r="N52" s="9">
-        <v>0.0141438947191</v>
+        <v>1.4143894719100001E-2</v>
       </c>
       <c r="O52" s="9"/>
       <c r="P52" s="4"/>
@@ -2551,13 +2707,13 @@
         <v>278872637.213</v>
       </c>
       <c r="T52" s="9">
-        <v>0.0142544306351</v>
+        <v>1.4254430635100001E-2</v>
       </c>
       <c r="U52" s="9"/>
       <c r="V52" s="4"/>
       <c r="W52" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+    <row r="53" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2565,36 +2721,36 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="9">
-        <v>360325696.476</v>
+        <v>360325696.47600001</v>
       </c>
       <c r="H53" s="9">
-        <v>0.0147004576199</v>
+        <v>1.4700457619899999E-2</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="4"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="9">
-        <v>466783541.966</v>
+        <v>466783541.96600002</v>
       </c>
       <c r="N53" s="9">
-        <v>0.0146349158111</v>
+        <v>1.46349158111E-2</v>
       </c>
       <c r="O53" s="9"/>
       <c r="P53" s="4"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="9">
-        <v>280955676.231</v>
+        <v>280955676.23100001</v>
       </c>
       <c r="T53" s="9">
-        <v>0.0147470806536</v>
+        <v>1.47470806536E-2</v>
       </c>
       <c r="U53" s="9"/>
       <c r="V53" s="4"/>
       <c r="W53" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
+    <row r="54" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2602,10 +2758,10 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="9">
-        <v>363192698.732</v>
+        <v>363192698.73199999</v>
       </c>
       <c r="H54" s="9">
-        <v>0.0151925141226</v>
+        <v>1.51925141226E-2</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="4"/>
@@ -2615,23 +2771,23 @@
         <v>471822458.87</v>
       </c>
       <c r="N54" s="9">
-        <v>0.0151257109491</v>
+        <v>1.5125710949100001E-2</v>
       </c>
       <c r="O54" s="9"/>
       <c r="P54" s="4"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="9">
-        <v>282998440.15</v>
+        <v>282998440.14999998</v>
       </c>
       <c r="T54" s="9">
-        <v>0.0152395394148</v>
+        <v>1.52395394148E-2</v>
       </c>
       <c r="U54" s="9"/>
       <c r="V54" s="4"/>
       <c r="W54" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+    <row r="55" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2639,36 +2795,36 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="9">
-        <v>366024127.187</v>
+        <v>366024127.18699998</v>
       </c>
       <c r="H55" s="9">
-        <v>0.0156843467164</v>
+        <v>1.56843467164E-2</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="4"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="9">
-        <v>476827492.645</v>
+        <v>476827492.64499998</v>
       </c>
       <c r="N55" s="9">
-        <v>0.0156162799449</v>
+        <v>1.5616279944900001E-2</v>
       </c>
       <c r="O55" s="9"/>
       <c r="P55" s="4"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
       <c r="S55" s="9">
-        <v>285001963.658</v>
+        <v>285001963.65799999</v>
       </c>
       <c r="T55" s="9">
-        <v>0.0157317995934</v>
+        <v>1.57317995934E-2</v>
       </c>
       <c r="U55" s="9"/>
       <c r="V55" s="4"/>
       <c r="W55" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
+    <row r="56" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2676,36 +2832,36 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="9">
-        <v>368820807.086</v>
+        <v>368820807.08600003</v>
       </c>
       <c r="H56" s="9">
-        <v>0.0161759554542</v>
+        <v>1.6175955454199999E-2</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="4"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="9">
-        <v>481799368.184</v>
+        <v>481799368.18400002</v>
       </c>
       <c r="N56" s="9">
-        <v>0.0161066227821</v>
+        <v>1.61066227821E-2</v>
       </c>
       <c r="O56" s="9"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="9">
-        <v>286967104.993</v>
+        <v>286967104.99299997</v>
       </c>
       <c r="T56" s="9">
-        <v>0.0162238555661</v>
+        <v>1.6223855566099999E-2</v>
       </c>
       <c r="U56" s="9"/>
       <c r="V56" s="4"/>
       <c r="W56" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+    <row r="57" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2713,36 +2869,36 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="9">
-        <v>371583526.026</v>
+        <v>371583526.02600002</v>
       </c>
       <c r="H57" s="9">
-        <v>0.0166673405135</v>
+        <v>1.6667340513499999E-2</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="4"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="9">
-        <v>486738766.531</v>
+        <v>486738766.53100002</v>
       </c>
       <c r="N57" s="9">
-        <v>0.0165967394207</v>
+        <v>1.6596739420699998E-2</v>
       </c>
       <c r="O57" s="9"/>
       <c r="P57" s="4"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="9">
-        <v>288894965.684</v>
+        <v>288894965.68400002</v>
       </c>
       <c r="T57" s="9">
-        <v>0.0167157037247</v>
+        <v>1.67157037247E-2</v>
       </c>
       <c r="U57" s="9"/>
       <c r="V57" s="4"/>
       <c r="W57" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
+    <row r="58" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2750,36 +2906,36 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="9">
-        <v>374313025.84</v>
+        <v>374313025.83999997</v>
       </c>
       <c r="H58" s="9">
-        <v>0.0171585021767</v>
+        <v>1.7158502176700001E-2</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="4"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="9">
-        <v>491646319.864</v>
+        <v>491646319.86400002</v>
       </c>
       <c r="N58" s="9">
-        <v>0.0170866297439</v>
+        <v>1.70866297439E-2</v>
       </c>
       <c r="O58" s="9"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="9">
-        <v>290787027.754</v>
+        <v>290787027.75400001</v>
       </c>
       <c r="T58" s="9">
-        <v>0.0172073373852</v>
+        <v>1.72073373852E-2</v>
       </c>
       <c r="U58" s="9"/>
       <c r="V58" s="4"/>
       <c r="W58" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+    <row r="59" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2787,36 +2943,36 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="9">
-        <v>377010004.749</v>
+        <v>377010004.74900001</v>
       </c>
       <c r="H59" s="9">
-        <v>0.0176494408007</v>
+        <v>1.7649440800700002E-2</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="4"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="9">
-        <v>496522636.465</v>
+        <v>496522636.46499997</v>
       </c>
       <c r="N59" s="9">
-        <v>0.0175762936339</v>
+        <v>1.7576293633900002E-2</v>
       </c>
       <c r="O59" s="9"/>
       <c r="P59" s="4"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="9">
-        <v>292644584.794</v>
+        <v>292644584.79400003</v>
       </c>
       <c r="T59" s="9">
-        <v>0.0176987562702</v>
+        <v>1.7698756270200001E-2</v>
       </c>
       <c r="U59" s="9"/>
       <c r="V59" s="4"/>
       <c r="W59" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+    <row r="60" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2824,36 +2980,36 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="9">
-        <v>379675122.786</v>
+        <v>379675122.78600001</v>
       </c>
       <c r="H60" s="9">
-        <v>0.0181401568033</v>
+        <v>1.81401568033E-2</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="4"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="9">
-        <v>501368312.147</v>
+        <v>501368312.14700001</v>
       </c>
       <c r="N60" s="9">
-        <v>0.0180657310543</v>
+        <v>1.80657310543E-2</v>
       </c>
       <c r="O60" s="9"/>
       <c r="P60" s="4"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="9">
-        <v>294468605.414</v>
+        <v>294468605.41399997</v>
       </c>
       <c r="T60" s="9">
-        <v>0.0181899676561</v>
+        <v>1.8189967656099999E-2</v>
       </c>
       <c r="U60" s="9"/>
       <c r="V60" s="4"/>
       <c r="W60" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
+    <row r="61" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2864,7 +3020,7 @@
         <v>382309008.579</v>
       </c>
       <c r="H61" s="9">
-        <v>0.018630650675</v>
+        <v>1.8630650674999999E-2</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="4"/>
@@ -2874,23 +3030,23 @@
         <v>506183919.435</v>
       </c>
       <c r="N61" s="9">
-        <v>0.01855494214</v>
+        <v>1.8554942139999999E-2</v>
       </c>
       <c r="O61" s="9"/>
       <c r="P61" s="4"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
       <c r="S61" s="9">
-        <v>296260158.01</v>
+        <v>296260158.00999999</v>
       </c>
       <c r="T61" s="9">
-        <v>0.0186809687908</v>
+        <v>1.8680968790800001E-2</v>
       </c>
       <c r="U61" s="9"/>
       <c r="V61" s="4"/>
       <c r="W61" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
+    <row r="62" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2901,33 +3057,33 @@
         <v>384912269.926</v>
       </c>
       <c r="H62" s="9">
-        <v>0.0191209229775</v>
+        <v>1.91209229775E-2</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="4"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="9">
-        <v>510970020.821</v>
+        <v>510970020.82099998</v>
       </c>
       <c r="N62" s="9">
-        <v>0.0190439272051</v>
+        <v>1.9043927205100002E-2</v>
       </c>
       <c r="O62" s="9"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="9">
-        <v>298019952.682</v>
+        <v>298019952.68199998</v>
       </c>
       <c r="T62" s="9">
-        <v>0.0191717579583</v>
+        <v>1.9171757958299999E-2</v>
       </c>
       <c r="U62" s="9"/>
       <c r="V62" s="4"/>
       <c r="W62" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
+    <row r="63" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2935,36 +3091,36 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="9">
-        <v>387485504.427</v>
+        <v>387485504.42699999</v>
       </c>
       <c r="H63" s="9">
-        <v>0.0196109742771</v>
+        <v>1.9610974277099999E-2</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="4"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="9">
-        <v>515727173.967</v>
+        <v>515727173.96700001</v>
       </c>
       <c r="N63" s="9">
-        <v>0.0195326867498</v>
+        <v>1.95326867498E-2</v>
       </c>
       <c r="O63" s="9"/>
       <c r="P63" s="4"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="9">
-        <v>299748554.928</v>
+        <v>299748554.92799997</v>
       </c>
       <c r="T63" s="9">
-        <v>0.0196623266876</v>
+        <v>1.9662326687599999E-2</v>
       </c>
       <c r="U63" s="9"/>
       <c r="V63" s="4"/>
       <c r="W63" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
+    <row r="64" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2972,36 +3128,36 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="9">
-        <v>390029303.055</v>
+        <v>390029303.05500001</v>
       </c>
       <c r="H64" s="9">
-        <v>0.0201008050563</v>
+        <v>2.0100805056299999E-2</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="4"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="9">
-        <v>520455905.232</v>
+        <v>520455905.23199999</v>
       </c>
       <c r="N64" s="9">
-        <v>0.0200212214629</v>
+        <v>2.0021221462899998E-2</v>
       </c>
       <c r="O64" s="9"/>
       <c r="P64" s="4"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="9">
-        <v>301446642.471</v>
+        <v>301446642.47100002</v>
       </c>
       <c r="T64" s="9">
-        <v>0.0201526738061</v>
+        <v>2.0152673806099999E-2</v>
       </c>
       <c r="U64" s="9"/>
       <c r="V64" s="4"/>
       <c r="W64" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
+    <row r="65" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3009,36 +3165,36 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="9">
-        <v>392544248.142</v>
+        <v>392544248.14200002</v>
       </c>
       <c r="H65" s="9">
-        <v>0.0205904156607</v>
+        <v>2.0590415660699999E-2</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="4"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="9">
-        <v>525156713.922</v>
+        <v>525156713.92199999</v>
       </c>
       <c r="N65" s="9">
-        <v>0.0205095321871</v>
+        <v>2.0509532187099999E-2</v>
       </c>
       <c r="O65" s="9"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="9">
-        <v>303114850.832</v>
+        <v>303114850.83200002</v>
       </c>
       <c r="T65" s="9">
-        <v>0.020642817866</v>
+        <v>2.0642817866000002E-2</v>
       </c>
       <c r="U65" s="9"/>
       <c r="V65" s="4"/>
       <c r="W65" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
+    <row r="66" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3046,10 +3202,10 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="9">
-        <v>395030903.257</v>
+        <v>395030903.25700003</v>
       </c>
       <c r="H66" s="9">
-        <v>0.0210798063212</v>
+        <v>2.10798063212E-2</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="4"/>
@@ -3059,23 +3215,23 @@
         <v>529830076.241</v>
       </c>
       <c r="N66" s="9">
-        <v>0.020997619869</v>
+        <v>2.0997619868999999E-2</v>
       </c>
       <c r="O66" s="9"/>
       <c r="P66" s="4"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="9">
-        <v>304754326.785</v>
+        <v>304754326.78500003</v>
       </c>
       <c r="T66" s="9">
-        <v>0.0211327646309</v>
+        <v>2.1132764630900001E-2</v>
       </c>
       <c r="U66" s="9"/>
       <c r="V66" s="4"/>
       <c r="W66" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
+    <row r="67" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3083,36 +3239,36 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="9">
-        <v>397489807.211</v>
+        <v>397489807.21100003</v>
       </c>
       <c r="H67" s="9">
-        <v>0.0215689772061</v>
+        <v>2.1568977206100001E-2</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="4"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="9">
-        <v>534476429.646</v>
+        <v>534476429.64600003</v>
       </c>
       <c r="N67" s="9">
-        <v>0.0214854855007</v>
+        <v>2.1485485500700001E-2</v>
       </c>
       <c r="O67" s="9"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="9">
-        <v>306365779.307</v>
+        <v>306365779.30699998</v>
       </c>
       <c r="T67" s="9">
-        <v>0.0216225087763</v>
+        <v>2.1622508776299999E-2</v>
       </c>
       <c r="U67" s="9"/>
       <c r="V67" s="4"/>
       <c r="W67" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
+    <row r="68" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3120,20 +3276,20 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="9">
-        <v>399921469.335</v>
+        <v>399921469.33499998</v>
       </c>
       <c r="H68" s="9">
-        <v>0.0220579284675</v>
+        <v>2.2057928467500001E-2</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="4"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="9">
-        <v>539096186.281</v>
+        <v>539096186.28100002</v>
       </c>
       <c r="N68" s="9">
-        <v>0.0219731300294</v>
+        <v>2.19731300294E-2</v>
       </c>
       <c r="O68" s="9"/>
       <c r="P68" s="4"/>
@@ -3143,13 +3299,13 @@
         <v>307949364.551</v>
       </c>
       <c r="T68" s="9">
-        <v>0.0221120484658</v>
+        <v>2.2112048465800001E-2</v>
       </c>
       <c r="U68" s="9"/>
       <c r="V68" s="4"/>
       <c r="W68" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
+    <row r="69" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3157,36 +3313,36 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="9">
-        <v>402326369.92</v>
+        <v>402326369.92000002</v>
       </c>
       <c r="H69" s="9">
-        <v>0.0225466602657</v>
+        <v>2.25466602657E-2</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="4"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="9">
-        <v>543689732.256</v>
+        <v>543689732.25600004</v>
       </c>
       <c r="N69" s="9">
-        <v>0.0224605543005</v>
+        <v>2.2460554300500001E-2</v>
       </c>
       <c r="O69" s="9"/>
       <c r="P69" s="4"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
       <c r="S69" s="9">
-        <v>309506192.552</v>
+        <v>309506192.55199999</v>
       </c>
       <c r="T69" s="9">
-        <v>0.0226013854319</v>
+        <v>2.26013854319E-2</v>
       </c>
       <c r="U69" s="9"/>
       <c r="V69" s="4"/>
       <c r="W69" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
+    <row r="70" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3197,33 +3353,33 @@
         <v>404704959.241</v>
       </c>
       <c r="H70" s="9">
-        <v>0.0230351727811</v>
+        <v>2.30351727811E-2</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="4"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="9">
-        <v>548257438.453</v>
+        <v>548257438.45299995</v>
       </c>
       <c r="N70" s="9">
-        <v>0.0229477590063</v>
+        <v>2.29477590063E-2</v>
       </c>
       <c r="O70" s="9"/>
       <c r="P70" s="4"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
       <c r="S70" s="9">
-        <v>311037263.64</v>
+        <v>311037263.63999999</v>
       </c>
       <c r="T70" s="9">
-        <v>0.0230905081806</v>
+        <v>2.3090508180599999E-2</v>
       </c>
       <c r="U70" s="9"/>
       <c r="V70" s="4"/>
       <c r="W70" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
+    <row r="71" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3231,36 +3387,36 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="9">
-        <v>407057664.621</v>
+        <v>407057664.62099999</v>
       </c>
       <c r="H71" s="9">
-        <v>0.023523466226</v>
+        <v>2.3523466226E-2</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="4"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="9">
-        <v>552799654.783</v>
+        <v>552799654.78299999</v>
       </c>
       <c r="N71" s="9">
-        <v>0.0234347446897</v>
+        <v>2.3434744689699999E-2</v>
       </c>
       <c r="O71" s="9"/>
       <c r="P71" s="4"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
       <c r="S71" s="9">
-        <v>312543092.451</v>
+        <v>312543092.45099998</v>
       </c>
       <c r="T71" s="9">
-        <v>0.0235794119507</v>
+        <v>2.3579411950699999E-2</v>
       </c>
       <c r="U71" s="9"/>
       <c r="V71" s="4"/>
       <c r="W71" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
+    <row r="72" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3271,33 +3427,33 @@
         <v>409384896.435</v>
       </c>
       <c r="H72" s="9">
-        <v>0.0240115408344</v>
+        <v>2.4011540834399998E-2</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="4"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="9">
-        <v>557316713.033</v>
+        <v>557316713.03299999</v>
       </c>
       <c r="N72" s="9">
-        <v>0.023921511764</v>
+        <v>2.3921511764000002E-2</v>
       </c>
       <c r="O72" s="9"/>
       <c r="P72" s="4"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
       <c r="S72" s="9">
-        <v>314024301.151</v>
+        <v>314024301.15100002</v>
       </c>
       <c r="T72" s="9">
-        <v>0.0240680932568</v>
+        <v>2.40680932568E-2</v>
       </c>
       <c r="U72" s="9"/>
       <c r="V72" s="4"/>
       <c r="W72" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
+    <row r="73" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3305,36 +3461,36 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="9">
-        <v>411687054.969</v>
+        <v>411687054.96899998</v>
       </c>
       <c r="H73" s="9">
-        <v>0.0244993968703</v>
+        <v>2.4499396870299998E-2</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="4"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="9">
-        <v>561808924.888</v>
+        <v>561808924.88800001</v>
       </c>
       <c r="N73" s="9">
-        <v>0.0244080605543</v>
+        <v>2.4408060554300001E-2</v>
       </c>
       <c r="O73" s="9"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
       <c r="S73" s="9">
-        <v>315481487.766</v>
+        <v>315481487.76599997</v>
       </c>
       <c r="T73" s="9">
-        <v>0.0245565481844</v>
+        <v>2.45565481844E-2</v>
       </c>
       <c r="U73" s="9"/>
       <c r="V73" s="4"/>
       <c r="W73" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
+    <row r="74" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3342,36 +3498,36 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="9">
-        <v>413964539.307</v>
+        <v>413964539.30699998</v>
       </c>
       <c r="H74" s="9">
-        <v>0.0249870346057</v>
+        <v>2.4987034605699999E-2</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="4"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="9">
-        <v>566276581.231</v>
+        <v>566276581.23099995</v>
       </c>
       <c r="N74" s="9">
-        <v>0.0248943913318</v>
+        <v>2.4894391331799999E-2</v>
       </c>
       <c r="O74" s="9"/>
       <c r="P74" s="4"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
       <c r="S74" s="9">
-        <v>316915207.711</v>
+        <v>316915207.71100003</v>
       </c>
       <c r="T74" s="9">
-        <v>0.0250447742709</v>
+        <v>2.5044774270899999E-2</v>
       </c>
       <c r="U74" s="9"/>
       <c r="V74" s="4"/>
       <c r="W74" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
+    <row r="75" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3379,36 +3535,36 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="9">
-        <v>416217749.217</v>
+        <v>416217749.21700001</v>
       </c>
       <c r="H75" s="9">
-        <v>0.0254744543006</v>
+        <v>2.54744543006E-2</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="4"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="9">
-        <v>570719958.428</v>
+        <v>570719958.42799997</v>
       </c>
       <c r="N75" s="9">
-        <v>0.0253805043405</v>
+        <v>2.5380504340500001E-2</v>
       </c>
       <c r="O75" s="9"/>
       <c r="P75" s="4"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
       <c r="S75" s="9">
-        <v>318326188.085</v>
+        <v>318326188.08499998</v>
       </c>
       <c r="T75" s="9">
-        <v>0.0255327668057</v>
+        <v>2.5532766805700002E-2</v>
       </c>
       <c r="U75" s="9"/>
       <c r="V75" s="4"/>
       <c r="W75" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
+    <row r="76" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3416,36 +3572,36 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="9">
-        <v>418447086.32</v>
+        <v>418447086.31999999</v>
       </c>
       <c r="H76" s="9">
-        <v>0.0259616561915</v>
+        <v>2.59616561915E-2</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="4"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="9">
-        <v>575139314.224</v>
+        <v>575139314.22399998</v>
       </c>
       <c r="N76" s="9">
-        <v>0.0258663998166</v>
+        <v>2.5866399816600001E-2</v>
       </c>
       <c r="O76" s="9"/>
       <c r="P76" s="4"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
       <c r="S76" s="9">
-        <v>319714838.365</v>
+        <v>319714838.36500001</v>
       </c>
       <c r="T76" s="9">
-        <v>0.0260205283679</v>
+        <v>2.60205283679E-2</v>
       </c>
       <c r="U76" s="9"/>
       <c r="V76" s="4"/>
       <c r="W76" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
+    <row r="77" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3453,36 +3609,36 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="9">
-        <v>420652948.044</v>
+        <v>420652948.04400003</v>
       </c>
       <c r="H77" s="9">
-        <v>0.0264486404779</v>
+        <v>2.64486404779E-2</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="4"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="9">
-        <v>579534890.334</v>
+        <v>579534890.33399999</v>
       </c>
       <c r="N77" s="9">
-        <v>0.0263520779994</v>
+        <v>2.6352077999399998E-2</v>
       </c>
       <c r="O77" s="9"/>
       <c r="P77" s="4"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
       <c r="S77" s="9">
-        <v>321081520.069</v>
+        <v>321081520.06900001</v>
       </c>
       <c r="T77" s="9">
-        <v>0.0265080621814</v>
+        <v>2.6508062181400002E-2</v>
       </c>
       <c r="U77" s="9"/>
       <c r="V77" s="4"/>
       <c r="W77" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
+    <row r="78" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3490,36 +3646,36 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="9">
-        <v>422835726.411</v>
+        <v>422835726.41100001</v>
       </c>
       <c r="H78" s="9">
-        <v>0.0269354073214</v>
+        <v>2.6935407321399998E-2</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="4"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="9">
-        <v>583906916.976</v>
+        <v>583906916.97599995</v>
       </c>
       <c r="N78" s="9">
-        <v>0.0268375391227</v>
+        <v>2.68375391227E-2</v>
       </c>
       <c r="O78" s="9"/>
       <c r="P78" s="4"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
       <c r="S78" s="9">
-        <v>322426470.073</v>
+        <v>322426470.07300001</v>
       </c>
       <c r="T78" s="9">
-        <v>0.0269953710044</v>
+        <v>2.6995371004399998E-2</v>
       </c>
       <c r="U78" s="9"/>
       <c r="V78" s="4"/>
       <c r="W78" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
+    <row r="79" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3527,20 +3683,20 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="9">
-        <v>424995806.595</v>
+        <v>424995806.59500003</v>
       </c>
       <c r="H79" s="9">
-        <v>0.0274219568494</v>
+        <v>2.7421956849399999E-2</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="4"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="9">
-        <v>588255616.596</v>
+        <v>588255616.59599996</v>
       </c>
       <c r="N79" s="9">
-        <v>0.0273227834188</v>
+        <v>2.7322783418800001E-2</v>
       </c>
       <c r="O79" s="9"/>
       <c r="P79" s="4"/>
@@ -3550,13 +3706,13 @@
         <v>323749793.065</v>
       </c>
       <c r="T79" s="9">
-        <v>0.0274824578589</v>
+        <v>2.7482457858900002E-2</v>
       </c>
       <c r="U79" s="9"/>
       <c r="V79" s="4"/>
       <c r="W79" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
+    <row r="80" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3567,33 +3723,33 @@
         <v>427133563.764</v>
       </c>
       <c r="H80" s="9">
-        <v>0.0279082891567</v>
+        <v>2.79082891567E-2</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="4"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="9">
-        <v>592581207.216</v>
+        <v>592581207.21599996</v>
       </c>
       <c r="N80" s="9">
-        <v>0.0278078111133</v>
+        <v>2.78078111133E-2</v>
       </c>
       <c r="O80" s="9"/>
       <c r="P80" s="4"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
       <c r="S80" s="9">
-        <v>325052292.489</v>
+        <v>325052292.48900002</v>
       </c>
       <c r="T80" s="9">
-        <v>0.0279693287516</v>
+        <v>2.7969328751599999E-2</v>
       </c>
       <c r="U80" s="9"/>
       <c r="V80" s="4"/>
       <c r="W80" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
+    <row r="81" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3601,36 +3757,36 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="9">
-        <v>429249365.016</v>
+        <v>429249365.01599997</v>
       </c>
       <c r="H81" s="9">
-        <v>0.0283944043129</v>
+        <v>2.8394404312899999E-2</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="4"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="9">
-        <v>596883908.098</v>
+        <v>596883908.09800005</v>
       </c>
       <c r="N81" s="9">
-        <v>0.0282926224168</v>
+        <v>2.8292622416800001E-2</v>
       </c>
       <c r="O81" s="9"/>
       <c r="P81" s="4"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
       <c r="S81" s="9">
-        <v>326334580.154</v>
+        <v>326334580.15399998</v>
       </c>
       <c r="T81" s="9">
-        <v>0.028455986935</v>
+        <v>2.8455986935E-2</v>
       </c>
       <c r="U81" s="9"/>
       <c r="V81" s="4"/>
       <c r="W81" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
+    <row r="82" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3638,20 +3794,20 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="9">
-        <v>431343566.905</v>
+        <v>431343566.90499997</v>
       </c>
       <c r="H82" s="9">
-        <v>0.0288803023641</v>
+        <v>2.88803023641E-2</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="4"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="9">
-        <v>601163943.299</v>
+        <v>601163943.29900002</v>
       </c>
       <c r="N82" s="9">
-        <v>0.0287772175093</v>
+        <v>2.8777217509299999E-2</v>
       </c>
       <c r="O82" s="9"/>
       <c r="P82" s="4"/>
@@ -3661,13 +3817,13 @@
         <v>327596980.023</v>
       </c>
       <c r="T82" s="9">
-        <v>0.0289424296076</v>
+        <v>2.89424296076E-2</v>
       </c>
       <c r="U82" s="9"/>
       <c r="V82" s="4"/>
       <c r="W82" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
+    <row r="83" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3675,20 +3831,20 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="9">
-        <v>433416517.584</v>
+        <v>433416517.58399999</v>
       </c>
       <c r="H83" s="9">
-        <v>0.0293659833408</v>
+        <v>2.9365983340800001E-2</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="4"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="9">
-        <v>605421538.95</v>
+        <v>605421538.95000005</v>
       </c>
       <c r="N83" s="9">
-        <v>0.0292615965327</v>
+        <v>2.92615965327E-2</v>
       </c>
       <c r="O83" s="9"/>
       <c r="P83" s="4"/>
@@ -3698,13 +3854,13 @@
         <v>328840010.213</v>
       </c>
       <c r="T83" s="9">
-        <v>0.029428655772</v>
+        <v>2.9428655772E-2</v>
       </c>
       <c r="U83" s="9"/>
       <c r="V83" s="4"/>
       <c r="W83" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
+    <row r="84" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3712,36 +3868,36 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="9">
-        <v>435468554.964</v>
+        <v>435468554.96399999</v>
       </c>
       <c r="H84" s="9">
-        <v>0.0298514472612</v>
+        <v>2.9851447261199999E-2</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="4"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="9">
-        <v>609656922.826</v>
+        <v>609656922.82599998</v>
       </c>
       <c r="N84" s="9">
-        <v>0.0297457595672</v>
+        <v>2.9745759567199999E-2</v>
       </c>
       <c r="O84" s="9"/>
       <c r="P84" s="4"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
       <c r="S84" s="9">
-        <v>330064108.266</v>
+        <v>330064108.26599997</v>
       </c>
       <c r="T84" s="9">
-        <v>0.0299146609427</v>
+        <v>2.9914660942700001E-2</v>
       </c>
       <c r="U84" s="9"/>
       <c r="V84" s="4"/>
       <c r="W84" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
+    <row r="85" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3749,20 +3905,20 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="9">
-        <v>437500007.533</v>
+        <v>437500007.53299999</v>
       </c>
       <c r="H85" s="9">
-        <v>0.0303366941319</v>
+        <v>3.0336694131899999E-2</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="4"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="9">
-        <v>613870317.889</v>
+        <v>613870317.88900006</v>
       </c>
       <c r="N85" s="9">
-        <v>0.0302297066318</v>
+        <v>3.02297066318E-2</v>
       </c>
       <c r="O85" s="9"/>
       <c r="P85" s="4"/>
@@ -3772,13 +3928,13 @@
         <v>331269504.329</v>
       </c>
       <c r="T85" s="9">
-        <v>0.0304004409407</v>
+        <v>3.0400440940700001E-2</v>
       </c>
       <c r="U85" s="9"/>
       <c r="V85" s="4"/>
       <c r="W85" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
+    <row r="86" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3786,36 +3942,36 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="9">
-        <v>439511196.595</v>
+        <v>439511196.59500003</v>
       </c>
       <c r="H86" s="9">
-        <v>0.0308217239584</v>
+        <v>3.0821723958400001E-2</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="4"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="9">
-        <v>618061938.599</v>
+        <v>618061938.59899998</v>
       </c>
       <c r="N86" s="9">
-        <v>0.030713437685</v>
+        <v>3.0713437685000001E-2</v>
       </c>
       <c r="O86" s="9"/>
       <c r="P86" s="4"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
       <c r="S86" s="9">
-        <v>332456579.285</v>
+        <v>332456579.28500003</v>
       </c>
       <c r="T86" s="9">
-        <v>0.0308859955731</v>
+        <v>3.0885995573100001E-2</v>
       </c>
       <c r="U86" s="9"/>
       <c r="V86" s="4"/>
       <c r="W86" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
+    <row r="87" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3826,33 +3982,33 @@
         <v>441502433.139</v>
       </c>
       <c r="H87" s="9">
-        <v>0.0313065367444</v>
+        <v>3.1306536744400003E-2</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="4"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="9">
-        <v>622231993.063</v>
+        <v>622231993.06299996</v>
       </c>
       <c r="N87" s="9">
-        <v>0.0311969526249</v>
+        <v>3.11969526249E-2</v>
       </c>
       <c r="O87" s="9"/>
       <c r="P87" s="4"/>
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
       <c r="S87" s="9">
-        <v>333625531.007</v>
+        <v>333625531.00700003</v>
       </c>
       <c r="T87" s="9">
-        <v>0.031371324401</v>
+        <v>3.1371324401000003E-2</v>
       </c>
       <c r="U87" s="9"/>
       <c r="V87" s="4"/>
       <c r="W87" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
+    <row r="88" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3860,20 +4016,20 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="9">
-        <v>443474019.258</v>
+        <v>443474019.25800002</v>
       </c>
       <c r="H88" s="9">
-        <v>0.0317911324902</v>
+        <v>3.1791132490199998E-2</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="4"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="9">
-        <v>626380676.656</v>
+        <v>626380676.65600002</v>
       </c>
       <c r="N88" s="9">
-        <v>0.0316802513101</v>
+        <v>3.1680251310100001E-2</v>
       </c>
       <c r="O88" s="9"/>
       <c r="P88" s="4"/>
@@ -3883,13 +4039,13 @@
         <v>334776670.324</v>
       </c>
       <c r="T88" s="9">
-        <v>0.0318564295</v>
+        <v>3.1856429499999998E-2</v>
       </c>
       <c r="U88" s="9"/>
       <c r="V88" s="4"/>
       <c r="W88" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
+    <row r="89" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3897,36 +4053,36 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="9">
-        <v>445426250.841</v>
+        <v>445426250.84100002</v>
       </c>
       <c r="H89" s="9">
-        <v>0.0322755111969</v>
+        <v>3.2275511196900003E-2</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="4"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="9">
-        <v>630508180.111</v>
+        <v>630508180.11099994</v>
       </c>
       <c r="N89" s="9">
-        <v>0.0321633335678</v>
+        <v>3.2163333567799997E-2</v>
       </c>
       <c r="O89" s="9"/>
       <c r="P89" s="4"/>
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
       <c r="S89" s="9">
-        <v>335910498.43</v>
+        <v>335910498.43000001</v>
       </c>
       <c r="T89" s="9">
-        <v>0.0323413112479</v>
+        <v>3.2341311247899997E-2</v>
       </c>
       <c r="U89" s="9"/>
       <c r="V89" s="4"/>
       <c r="W89" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
+    <row r="90" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3934,20 +4090,20 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="9">
-        <v>447359416.045</v>
+        <v>447359416.04500002</v>
       </c>
       <c r="H90" s="9">
-        <v>0.0327596728639</v>
+        <v>3.2759672863899997E-2</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="4"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="9">
-        <v>634614689.628</v>
+        <v>634614689.62800002</v>
       </c>
       <c r="N90" s="9">
-        <v>0.0326461992133</v>
+        <v>3.2646199213300003E-2</v>
       </c>
       <c r="O90" s="9"/>
       <c r="P90" s="4"/>
@@ -3957,13 +4113,13 @@
         <v>337027480.495</v>
       </c>
       <c r="T90" s="9">
-        <v>0.0328259695689</v>
+        <v>3.28259695689E-2</v>
       </c>
       <c r="U90" s="9"/>
       <c r="V90" s="4"/>
       <c r="W90" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
+    <row r="91" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3971,36 +4127,36 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="9">
-        <v>449273793.453</v>
+        <v>449273793.45300001</v>
       </c>
       <c r="H91" s="9">
-        <v>0.0332436174924</v>
+        <v>3.3243617492399999E-2</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="4"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="9">
-        <v>638700384.901</v>
+        <v>638700384.90100002</v>
       </c>
       <c r="N91" s="9">
-        <v>0.0331288480664</v>
+        <v>3.3128848066399999E-2</v>
       </c>
       <c r="O91" s="9"/>
       <c r="P91" s="4"/>
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
       <c r="S91" s="9">
-        <v>338128008.332</v>
+        <v>338128008.33200002</v>
       </c>
       <c r="T91" s="9">
-        <v>0.0333104025038</v>
+        <v>3.3310402503799998E-2</v>
       </c>
       <c r="U91" s="9"/>
       <c r="V91" s="4"/>
       <c r="W91" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
+    <row r="92" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -4008,36 +4164,36 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="9">
-        <v>451169656.346</v>
+        <v>451169656.34600002</v>
       </c>
       <c r="H92" s="9">
-        <v>0.0337273450795</v>
+        <v>3.3727345079500003E-2</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="4"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="9">
-        <v>642765445.413</v>
+        <v>642765445.41299999</v>
       </c>
       <c r="N92" s="9">
-        <v>0.0336112799551</v>
+        <v>3.36112799551E-2</v>
       </c>
       <c r="O92" s="9"/>
       <c r="P92" s="4"/>
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
       <c r="S92" s="9">
-        <v>339212547.552</v>
+        <v>339212547.55199999</v>
       </c>
       <c r="T92" s="9">
-        <v>0.033794609705</v>
+        <v>3.3794609704999999E-2</v>
       </c>
       <c r="U92" s="9"/>
       <c r="V92" s="4"/>
       <c r="W92" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
+    <row r="93" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -4045,36 +4201,36 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="9">
-        <v>453047275.541</v>
+        <v>453047275.54100001</v>
       </c>
       <c r="H93" s="9">
-        <v>0.0342108556134</v>
+        <v>3.4210855613400003E-2</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="4"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="9">
-        <v>646810048.029</v>
+        <v>646810048.02900004</v>
       </c>
       <c r="N93" s="9">
-        <v>0.0340934947314</v>
+        <v>3.4093494731399998E-2</v>
       </c>
       <c r="O93" s="9"/>
       <c r="P93" s="4"/>
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
       <c r="S93" s="9">
-        <v>340281365.129</v>
+        <v>340281365.12900001</v>
       </c>
       <c r="T93" s="9">
-        <v>0.0342785961257</v>
+        <v>3.42785961257E-2</v>
       </c>
       <c r="U93" s="9"/>
       <c r="V93" s="4"/>
       <c r="W93" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
+    <row r="94" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -4082,36 +4238,36 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="9">
-        <v>454906913.166</v>
+        <v>454906913.16600001</v>
       </c>
       <c r="H94" s="9">
-        <v>0.0346941490786</v>
+        <v>3.4694149078600002E-2</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="4"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="9">
-        <v>650834366.907</v>
+        <v>650834366.90699995</v>
       </c>
       <c r="N94" s="9">
-        <v>0.0345754922693</v>
+        <v>3.4575492269299998E-2</v>
       </c>
       <c r="O94" s="9"/>
       <c r="P94" s="4"/>
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
       <c r="S94" s="9">
-        <v>341334774.805</v>
+        <v>341334774.80500001</v>
       </c>
       <c r="T94" s="9">
-        <v>0.0347623721377</v>
+        <v>3.4762372137699997E-2</v>
       </c>
       <c r="U94" s="9"/>
       <c r="V94" s="4"/>
       <c r="W94" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
+    <row r="95" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -4119,36 +4275,36 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="9">
-        <v>456748828.177</v>
+        <v>456748828.17699999</v>
       </c>
       <c r="H95" s="9">
-        <v>0.0351772254534</v>
+        <v>3.5177225453399998E-2</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="4"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="9">
-        <v>654838574.061</v>
+        <v>654838574.06099999</v>
       </c>
       <c r="N95" s="9">
-        <v>0.0350572724762</v>
+        <v>3.5057272476199997E-2</v>
       </c>
       <c r="O95" s="9"/>
       <c r="P95" s="4"/>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
       <c r="S95" s="9">
-        <v>342373185.058</v>
+        <v>342373185.05800003</v>
       </c>
       <c r="T95" s="9">
-        <v>0.0352459362073</v>
+        <v>3.5245936207300002E-2</v>
       </c>
       <c r="U95" s="9"/>
       <c r="V95" s="4"/>
       <c r="W95" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
+    <row r="96" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4156,20 +4312,20 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="9">
-        <v>458573274.034</v>
+        <v>458573274.03399998</v>
       </c>
       <c r="H96" s="9">
-        <v>0.0356600847172</v>
+        <v>3.5660084717200002E-2</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="4"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="9">
-        <v>658822837.399</v>
+        <v>658822837.39900005</v>
       </c>
       <c r="N96" s="9">
-        <v>0.0355388352933</v>
+        <v>3.55388352933E-2</v>
       </c>
       <c r="O96" s="9"/>
       <c r="P96" s="4"/>
@@ -4179,13 +4335,13 @@
         <v>343396824.296</v>
       </c>
       <c r="T96" s="9">
-        <v>0.0357292800865</v>
+        <v>3.5729280086499997E-2</v>
       </c>
       <c r="U96" s="9"/>
       <c r="V96" s="4"/>
       <c r="W96" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
+    <row r="97" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4196,17 +4352,17 @@
         <v>460380498.236</v>
       </c>
       <c r="H97" s="9">
-        <v>0.0361427268554</v>
+        <v>3.6142726855400001E-2</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="4"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="9">
-        <v>662787320.141</v>
+        <v>662787320.14100003</v>
       </c>
       <c r="N97" s="9">
-        <v>0.0360201807071</v>
+        <v>3.6020180707100002E-2</v>
       </c>
       <c r="O97" s="9"/>
       <c r="P97" s="4"/>
@@ -4216,13 +4372,13 @@
         <v>344406107.579</v>
       </c>
       <c r="T97" s="9">
-        <v>0.0362123990745</v>
+        <v>3.6212399074500003E-2</v>
       </c>
       <c r="U97" s="9"/>
       <c r="V97" s="4"/>
       <c r="W97" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
+    <row r="98" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4233,33 +4389,33 @@
         <v>462170741.236</v>
       </c>
       <c r="H98" s="9">
-        <v>0.0366251518596</v>
+        <v>3.6625151859599997E-2</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="4"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="9">
-        <v>666732178.052</v>
+        <v>666732178.05200005</v>
       </c>
       <c r="N98" s="9">
-        <v>0.0365013087524</v>
+        <v>3.65013087524E-2</v>
       </c>
       <c r="O98" s="9"/>
       <c r="P98" s="4"/>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
       <c r="S98" s="9">
-        <v>345401349.967</v>
+        <v>345401349.96700001</v>
       </c>
       <c r="T98" s="9">
-        <v>0.0366952950613</v>
+        <v>3.6695295061300003E-2</v>
       </c>
       <c r="U98" s="9"/>
       <c r="V98" s="4"/>
       <c r="W98" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
+    <row r="99" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4267,36 +4423,36 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="9">
-        <v>463944238.261</v>
+        <v>463944238.26099998</v>
       </c>
       <c r="H99" s="9">
-        <v>0.0371073597482</v>
+        <v>3.7107359748200001E-2</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="4"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="9">
-        <v>670657560.711</v>
+        <v>670657560.71099997</v>
       </c>
       <c r="N99" s="9">
-        <v>0.0369822195199</v>
+        <v>3.6982219519900002E-2</v>
       </c>
       <c r="O99" s="9"/>
       <c r="P99" s="4"/>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
       <c r="S99" s="9">
-        <v>346382634.928</v>
+        <v>346382634.92799997</v>
       </c>
       <c r="T99" s="9">
-        <v>0.0371779736953</v>
+        <v>3.7177973695300001E-2</v>
       </c>
       <c r="U99" s="9"/>
       <c r="V99" s="4"/>
       <c r="W99" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
+    <row r="100" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4304,36 +4460,36 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="9">
-        <v>465701215.41</v>
+        <v>465701215.41000003</v>
       </c>
       <c r="H100" s="9">
-        <v>0.0375893505691</v>
+        <v>3.7589350569099997E-2</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="4"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="9">
-        <v>674563606.917</v>
+        <v>674563606.91700006</v>
       </c>
       <c r="N100" s="9">
-        <v>0.0374629131673</v>
+        <v>3.7462913167300001E-2</v>
       </c>
       <c r="O100" s="9"/>
       <c r="P100" s="4"/>
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
       <c r="S100" s="9">
-        <v>347349850.408</v>
+        <v>347349850.40799999</v>
       </c>
       <c r="T100" s="9">
-        <v>0.0376604431205</v>
+        <v>3.7660443120500001E-2</v>
       </c>
       <c r="U100" s="9"/>
       <c r="V100" s="4"/>
       <c r="W100" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
+    <row r="101" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -4341,36 +4497,36 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="9">
-        <v>467441890.257</v>
+        <v>467441890.25700003</v>
       </c>
       <c r="H101" s="9">
-        <v>0.0380711244195</v>
+        <v>3.8071124419500002E-2</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="4"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="9">
-        <v>678450447.785</v>
+        <v>678450447.78499997</v>
       </c>
       <c r="N101" s="9">
-        <v>0.0379433899125</v>
+        <v>3.79433899125E-2</v>
       </c>
       <c r="O101" s="9"/>
       <c r="P101" s="4"/>
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
       <c r="S101" s="9">
-        <v>348303812.585</v>
+        <v>348303812.58499998</v>
       </c>
       <c r="T101" s="9">
-        <v>0.0381427004328</v>
+        <v>3.8142700432799999E-2</v>
       </c>
       <c r="U101" s="9"/>
       <c r="V101" s="4"/>
       <c r="W101" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
+    <row r="102" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -4378,36 +4534,36 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="9">
-        <v>469166470.803</v>
+        <v>469166470.80299997</v>
       </c>
       <c r="H102" s="9">
-        <v>0.0385526814594</v>
+        <v>3.8552681459400003E-2</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="4"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="9">
-        <v>682318208.845</v>
+        <v>682318208.84500003</v>
       </c>
       <c r="N102" s="9">
-        <v>0.0384236500294</v>
+        <v>3.84236500294E-2</v>
       </c>
       <c r="O102" s="9"/>
       <c r="P102" s="4"/>
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
       <c r="S102" s="9">
-        <v>349244647.323</v>
+        <v>349244647.32300001</v>
       </c>
       <c r="T102" s="9">
-        <v>0.0386247388491</v>
+        <v>3.8624738849099997E-2</v>
       </c>
       <c r="U102" s="9"/>
       <c r="V102" s="4"/>
       <c r="W102" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
+    <row r="103" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -4415,36 +4571,36 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="9">
-        <v>470875155.709</v>
+        <v>470875155.70899999</v>
       </c>
       <c r="H103" s="9">
-        <v>0.0390340219216</v>
+        <v>3.90340219216E-2</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="4"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="9">
-        <v>686167013.185</v>
+        <v>686167013.18499994</v>
       </c>
       <c r="N103" s="9">
-        <v>0.0389036938279</v>
+        <v>3.8903693827900002E-2</v>
       </c>
       <c r="O103" s="9"/>
       <c r="P103" s="4"/>
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
       <c r="S103" s="9">
-        <v>350172362.939</v>
+        <v>350172362.93900001</v>
       </c>
       <c r="T103" s="9">
-        <v>0.0391065613655</v>
+        <v>3.9106561365500003E-2</v>
       </c>
       <c r="U103" s="9"/>
       <c r="V103" s="4"/>
       <c r="W103" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
+    <row r="104" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4452,36 +4608,36 @@
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="9">
-        <v>472568135.832</v>
+        <v>472568135.83200002</v>
       </c>
       <c r="H104" s="9">
-        <v>0.039515146116</v>
+        <v>3.9515146116000002E-2</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="4"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="9">
-        <v>689996983.049</v>
+        <v>689996983.04900002</v>
       </c>
       <c r="N104" s="9">
-        <v>0.0393835216313</v>
+        <v>3.9383521631300003E-2</v>
       </c>
       <c r="O104" s="9"/>
       <c r="P104" s="4"/>
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
       <c r="S104" s="9">
-        <v>351086996.104</v>
+        <v>351086996.10399997</v>
       </c>
       <c r="T104" s="9">
-        <v>0.0395881736932</v>
+        <v>3.9588173693200002E-2</v>
       </c>
       <c r="U104" s="9"/>
       <c r="V104" s="4"/>
       <c r="W104" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5">
+    <row r="105" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4489,36 +4645,36 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="9">
-        <v>474245598.606</v>
+        <v>474245598.60600001</v>
       </c>
       <c r="H105" s="9">
-        <v>0.0399960544157</v>
+        <v>3.9996054415699998E-2</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="4"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="9">
-        <v>693808242.599</v>
+        <v>693808242.59899998</v>
       </c>
       <c r="N105" s="9">
-        <v>0.0398631337592</v>
+        <v>3.9863133759200003E-2</v>
       </c>
       <c r="O105" s="9"/>
       <c r="P105" s="4"/>
       <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
       <c r="S105" s="9">
-        <v>351988602.099</v>
+        <v>351988602.09899998</v>
       </c>
       <c r="T105" s="9">
-        <v>0.0400695756416</v>
+        <v>4.0069575641599998E-2</v>
       </c>
       <c r="U105" s="9"/>
       <c r="V105" s="4"/>
       <c r="W105" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5">
+    <row r="106" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4526,36 +4682,36 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="9">
-        <v>475907727.989</v>
+        <v>475907727.98900002</v>
       </c>
       <c r="H106" s="9">
-        <v>0.0404767472396</v>
+        <v>4.04767472396E-2</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="4"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="9">
-        <v>697600914.933</v>
+        <v>697600914.93299997</v>
       </c>
       <c r="N106" s="9">
-        <v>0.0403425305084</v>
+        <v>4.0342530508399997E-2</v>
       </c>
       <c r="O106" s="9"/>
       <c r="P106" s="4"/>
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
       <c r="S106" s="9">
-        <v>352877496.047</v>
+        <v>352877496.04699999</v>
       </c>
       <c r="T106" s="9">
-        <v>0.0405507659714</v>
+        <v>4.0550765971399998E-2</v>
       </c>
       <c r="U106" s="9"/>
       <c r="V106" s="4"/>
       <c r="W106" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5">
+    <row r="107" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4566,33 +4722,33 @@
         <v>477554709.634</v>
       </c>
       <c r="H107" s="9">
-        <v>0.040957225011</v>
+        <v>4.0957225010999999E-2</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="4"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="9">
-        <v>701375119.951</v>
+        <v>701375119.95099998</v>
       </c>
       <c r="N107" s="9">
-        <v>0.0408217121513</v>
+        <v>4.0821712151300003E-2</v>
       </c>
       <c r="O107" s="9"/>
       <c r="P107" s="4"/>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
       <c r="S107" s="9">
-        <v>353754254.587</v>
+        <v>353754254.58700001</v>
       </c>
       <c r="T107" s="9">
-        <v>0.0410317430368</v>
+        <v>4.1031743036800003E-2</v>
       </c>
       <c r="U107" s="9"/>
       <c r="V107" s="4"/>
       <c r="W107" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5">
+    <row r="108" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4600,36 +4756,36 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="9">
-        <v>479186727.469</v>
+        <v>479186727.46899998</v>
       </c>
       <c r="H108" s="9">
-        <v>0.0414374881321</v>
+        <v>4.1437488132099999E-2</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="4"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="9">
-        <v>705130971.904</v>
+        <v>705130971.90400004</v>
       </c>
       <c r="N108" s="9">
-        <v>0.0413006789353</v>
+        <v>4.1300678935299998E-2</v>
       </c>
       <c r="O108" s="9"/>
       <c r="P108" s="4"/>
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
       <c r="S108" s="9">
-        <v>354619058.747</v>
+        <v>354619058.74699998</v>
       </c>
       <c r="T108" s="9">
-        <v>0.0415125061884</v>
+        <v>4.1512506188400002E-2</v>
       </c>
       <c r="U108" s="9"/>
       <c r="V108" s="4"/>
       <c r="W108" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5">
+    <row r="109" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4637,36 +4793,36 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="9">
-        <v>480803963.168</v>
+        <v>480803963.16799998</v>
       </c>
       <c r="H109" s="9">
-        <v>0.0419175369682</v>
+        <v>4.1917536968199998E-2</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="4"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="9">
-        <v>708868575.769</v>
+        <v>708868575.76900005</v>
       </c>
       <c r="N109" s="9">
-        <v>0.041779431091</v>
+        <v>4.1779431090999998E-2</v>
       </c>
       <c r="O109" s="9"/>
       <c r="P109" s="4"/>
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
       <c r="S109" s="9">
-        <v>355472030.913</v>
+        <v>355472030.91299999</v>
       </c>
       <c r="T109" s="9">
-        <v>0.041993057234</v>
+        <v>4.1993057234E-2</v>
       </c>
       <c r="U109" s="9"/>
       <c r="V109" s="4"/>
       <c r="W109" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5">
+    <row r="110" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4674,36 +4830,36 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="9">
-        <v>482406593.237</v>
+        <v>482406593.23699999</v>
       </c>
       <c r="H110" s="9">
-        <v>0.0423973718387</v>
+        <v>4.2397371838700001E-2</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="4"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="9">
-        <v>712588029.807</v>
+        <v>712588029.80700004</v>
       </c>
       <c r="N110" s="9">
-        <v>0.0422579688371</v>
+        <v>4.22579688371E-2</v>
       </c>
       <c r="O110" s="9"/>
       <c r="P110" s="4"/>
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
       <c r="S110" s="9">
-        <v>356313565.74</v>
+        <v>356313565.74000001</v>
       </c>
       <c r="T110" s="9">
-        <v>0.0424733965739</v>
+        <v>4.2473396573900001E-2</v>
       </c>
       <c r="U110" s="9"/>
       <c r="V110" s="4"/>
       <c r="W110" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5">
+    <row r="111" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4711,36 +4867,36 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="9">
-        <v>483994787.808</v>
+        <v>483994787.80800003</v>
       </c>
       <c r="H111" s="9">
-        <v>0.0428769930321</v>
+        <v>4.2876993032099998E-2</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="4"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="9">
-        <v>716289422.08</v>
+        <v>716289422.08000004</v>
       </c>
       <c r="N111" s="9">
-        <v>0.0427362923899</v>
+        <v>4.2736292389900003E-2</v>
       </c>
       <c r="O111" s="9"/>
       <c r="P111" s="4"/>
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
       <c r="S111" s="9">
-        <v>357143980.717</v>
+        <v>357143980.71700001</v>
       </c>
       <c r="T111" s="9">
-        <v>0.0429535196541</v>
+        <v>4.2953519654099999E-2</v>
       </c>
       <c r="U111" s="9"/>
       <c r="V111" s="4"/>
       <c r="W111" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5">
+    <row r="112" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4748,36 +4904,36 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="9">
-        <v>485568708.512</v>
+        <v>485568708.51200002</v>
       </c>
       <c r="H112" s="9">
-        <v>0.0433564008094</v>
+        <v>4.3356400809400002E-2</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="4"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="9">
-        <v>719972834.974</v>
+        <v>719972834.97399998</v>
       </c>
       <c r="N112" s="9">
-        <v>0.043214401968</v>
+        <v>4.3214401967999999E-2</v>
       </c>
       <c r="O112" s="9"/>
       <c r="P112" s="4"/>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
       <c r="S112" s="9">
-        <v>357963595.399</v>
+        <v>357963595.39899999</v>
       </c>
       <c r="T112" s="9">
-        <v>0.0434334228827</v>
+        <v>4.3433422882700003E-2</v>
       </c>
       <c r="U112" s="9"/>
       <c r="V112" s="4"/>
       <c r="W112" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5">
+    <row r="113" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4785,36 +4941,36 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="9">
-        <v>487128510.379</v>
+        <v>487128510.37900001</v>
       </c>
       <c r="H113" s="9">
-        <v>0.0438355954182</v>
+        <v>4.38355954182E-2</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="4"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="9">
-        <v>723638345.695</v>
+        <v>723638345.69500005</v>
       </c>
       <c r="N113" s="9">
-        <v>0.0436922978008</v>
+        <v>4.3692297800800001E-2</v>
       </c>
       <c r="O113" s="9"/>
       <c r="P113" s="4"/>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
       <c r="S113" s="9">
-        <v>358772539.452</v>
+        <v>358772539.45200002</v>
       </c>
       <c r="T113" s="9">
-        <v>0.0439131081796</v>
+        <v>4.3913108179600001E-2</v>
       </c>
       <c r="U113" s="9"/>
       <c r="V113" s="4"/>
       <c r="W113" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5">
+    <row r="114" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -4822,36 +4978,36 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="9">
-        <v>488674342.68</v>
+        <v>488674342.68000001</v>
       </c>
       <c r="H114" s="9">
-        <v>0.0443145770985</v>
+        <v>4.4314577098500001E-2</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="4"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
       <c r="M114" s="9">
-        <v>727286027.841</v>
+        <v>727286027.84099996</v>
       </c>
       <c r="N114" s="9">
-        <v>0.0441699801423</v>
+        <v>4.4169980142300003E-2</v>
       </c>
       <c r="O114" s="9"/>
       <c r="P114" s="4"/>
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
       <c r="S114" s="9">
-        <v>359570951.325</v>
+        <v>359570951.32499999</v>
       </c>
       <c r="T114" s="9">
-        <v>0.044392579457</v>
+        <v>4.4392579457000002E-2</v>
       </c>
       <c r="U114" s="9"/>
       <c r="V114" s="4"/>
       <c r="W114" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5">
+    <row r="115" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4859,36 +5015,36 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="9">
-        <v>490206351.577</v>
+        <v>490206351.57700002</v>
       </c>
       <c r="H115" s="9">
-        <v>0.0447933460824</v>
+        <v>4.4793346082400001E-2</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="4"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
       <c r="M115" s="9">
-        <v>730915952.99</v>
+        <v>730915952.99000001</v>
       </c>
       <c r="N115" s="9">
-        <v>0.0446474492775</v>
+        <v>4.4647449277500001E-2</v>
       </c>
       <c r="O115" s="9"/>
       <c r="P115" s="4"/>
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
       <c r="S115" s="9">
-        <v>360359284.988</v>
+        <v>360359284.98799998</v>
       </c>
       <c r="T115" s="9">
-        <v>0.044871837907</v>
+        <v>4.4871837907000001E-2</v>
       </c>
       <c r="U115" s="9"/>
       <c r="V115" s="4"/>
       <c r="W115" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5">
+    <row r="116" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -4896,36 +5052,36 @@
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="9">
-        <v>491724682.137</v>
+        <v>491724682.13700002</v>
       </c>
       <c r="H116" s="9">
-        <v>0.0452719025847</v>
+        <v>4.52719025847E-2</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="4"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
       <c r="M116" s="9">
-        <v>734528193.795</v>
+        <v>734528193.79499996</v>
       </c>
       <c r="N116" s="9">
-        <v>0.0451247055275</v>
+        <v>4.5124705527500003E-2</v>
       </c>
       <c r="O116" s="9"/>
       <c r="P116" s="4"/>
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
       <c r="S116" s="9">
-        <v>361137933.438</v>
+        <v>361137933.43800002</v>
       </c>
       <c r="T116" s="9">
-        <v>0.0453508840372</v>
+        <v>4.5350884037200001E-2</v>
       </c>
       <c r="U116" s="9"/>
       <c r="V116" s="4"/>
       <c r="W116" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5">
+    <row r="117" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4933,36 +5089,36 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="9">
-        <v>493229479.941</v>
+        <v>493229479.94099998</v>
       </c>
       <c r="H117" s="9">
-        <v>0.0457502468002</v>
+        <v>4.5750246800199998E-2</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="4"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
       <c r="M117" s="9">
-        <v>738122824.434</v>
+        <v>738122824.43400002</v>
       </c>
       <c r="N117" s="9">
-        <v>0.045601749256</v>
+        <v>4.5601749256000003E-2</v>
       </c>
       <c r="O117" s="9"/>
       <c r="P117" s="4"/>
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
       <c r="S117" s="9">
-        <v>361907109.59</v>
+        <v>361907109.58999997</v>
       </c>
       <c r="T117" s="9">
-        <v>0.0458297233853</v>
+        <v>4.5829723385300003E-2</v>
       </c>
       <c r="U117" s="9"/>
       <c r="V117" s="4"/>
       <c r="W117" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5">
+    <row r="118" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -4970,10 +5126,10 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="9">
-        <v>494720890.92</v>
+        <v>494720890.92000002</v>
       </c>
       <c r="H118" s="9">
-        <v>0.0462283788957</v>
+        <v>4.6228378895700001E-2</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="4"/>
@@ -4983,23 +5139,23 @@
         <v>741699923.25</v>
       </c>
       <c r="N118" s="9">
-        <v>0.046078580863</v>
+        <v>4.6078580862999999E-2</v>
       </c>
       <c r="O118" s="9"/>
       <c r="P118" s="4"/>
       <c r="Q118" s="1"/>
       <c r="R118" s="1"/>
       <c r="S118" s="9">
-        <v>362666475.23</v>
+        <v>362666475.23000002</v>
       </c>
       <c r="T118" s="9">
-        <v>0.0463083604456</v>
+        <v>4.6308360445600001E-2</v>
       </c>
       <c r="U118" s="9"/>
       <c r="V118" s="4"/>
       <c r="W118" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5">
+    <row r="119" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -5010,33 +5166,33 @@
         <v>496199060.699</v>
       </c>
       <c r="H119" s="9">
-        <v>0.0467062990101</v>
+        <v>4.6706299010099997E-2</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="4"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
       <c r="M119" s="9">
-        <v>745259568.381</v>
+        <v>745259568.38100004</v>
       </c>
       <c r="N119" s="9">
-        <v>0.0465552007744</v>
+        <v>4.65552007744E-2</v>
       </c>
       <c r="O119" s="9"/>
       <c r="P119" s="4"/>
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
       <c r="S119" s="9">
-        <v>363416094.393</v>
+        <v>363416094.39300001</v>
       </c>
       <c r="T119" s="9">
-        <v>0.0467867876907</v>
+        <v>4.67867876907E-2</v>
       </c>
       <c r="U119" s="9"/>
       <c r="V119" s="4"/>
       <c r="W119" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5">
+    <row r="120" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -5047,33 +5203,33 @@
         <v>497664135.06</v>
       </c>
       <c r="H120" s="9">
-        <v>0.0471840072583</v>
+        <v>4.7184007258299999E-2</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="4"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
       <c r="M120" s="9">
-        <v>748801840.214</v>
+        <v>748801840.21399999</v>
       </c>
       <c r="N120" s="9">
-        <v>0.0470316094247</v>
+        <v>4.7031609424699999E-2</v>
       </c>
       <c r="O120" s="9"/>
       <c r="P120" s="4"/>
       <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
       <c r="S120" s="9">
-        <v>364155930.769</v>
+        <v>364155930.76899999</v>
       </c>
       <c r="T120" s="9">
-        <v>0.047265000015</v>
+        <v>4.7265000015000003E-2</v>
       </c>
       <c r="U120" s="9"/>
       <c r="V120" s="4"/>
       <c r="W120" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5">
+    <row r="121" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -5084,33 +5240,33 @@
         <v>499116257.833</v>
       </c>
       <c r="H121" s="9">
-        <v>0.0476615037338</v>
+        <v>4.7661503733800001E-2</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="4"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
       <c r="M121" s="9">
-        <v>752326821.865</v>
+        <v>752326821.86500001</v>
       </c>
       <c r="N121" s="9">
-        <v>0.0475078072385</v>
+        <v>4.7507807238499997E-2</v>
       </c>
       <c r="O121" s="9"/>
       <c r="P121" s="4"/>
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
       <c r="S121" s="9">
-        <v>364886427.235</v>
+        <v>364886427.23500001</v>
       </c>
       <c r="T121" s="9">
-        <v>0.0477429973765</v>
+        <v>4.77429973765E-2</v>
       </c>
       <c r="U121" s="9"/>
       <c r="V121" s="4"/>
       <c r="W121" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5">
+    <row r="122" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -5118,36 +5274,36 @@
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="9">
-        <v>500555571.466</v>
+        <v>500555571.46600002</v>
       </c>
       <c r="H122" s="9">
-        <v>0.0481387885119</v>
+        <v>4.8138788511900003E-2</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="4"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
       <c r="M122" s="9">
-        <v>755834590.781</v>
+        <v>755834590.78100002</v>
       </c>
       <c r="N122" s="9">
-        <v>0.0479837946128</v>
+        <v>4.7983794612800001E-2</v>
       </c>
       <c r="O122" s="9"/>
       <c r="P122" s="4"/>
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
       <c r="S122" s="9">
-        <v>365607590.03</v>
+        <v>365607590.02999997</v>
       </c>
       <c r="T122" s="9">
-        <v>0.0482207831676</v>
+        <v>4.82207831676E-2</v>
       </c>
       <c r="U122" s="9"/>
       <c r="V122" s="4"/>
       <c r="W122" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5">
+    <row r="123" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -5155,36 +5311,36 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="9">
-        <v>501982218.682</v>
+        <v>501982218.68199998</v>
       </c>
       <c r="H123" s="9">
-        <v>0.0486158616411</v>
+        <v>4.8615861641100003E-2</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="4"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
       <c r="M123" s="9">
-        <v>759325222.014</v>
+        <v>759325222.01400006</v>
       </c>
       <c r="N123" s="9">
-        <v>0.0484595719122</v>
+        <v>4.8459571912200003E-2</v>
       </c>
       <c r="O123" s="9"/>
       <c r="P123" s="4"/>
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
       <c r="S123" s="9">
-        <v>366319438.927</v>
+        <v>366319438.92699999</v>
       </c>
       <c r="T123" s="9">
-        <v>0.0486983662011</v>
+        <v>4.8698366201099998E-2</v>
       </c>
       <c r="U123" s="9"/>
       <c r="V123" s="4"/>
       <c r="W123" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5">
+    <row r="124" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -5195,17 +5351,17 @@
         <v>503396342.023</v>
       </c>
       <c r="H124" s="9">
-        <v>0.0490927231428</v>
+        <v>4.9092723142799999E-2</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="4"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
       <c r="M124" s="9">
-        <v>762798784.394</v>
+        <v>762798784.39400005</v>
       </c>
       <c r="N124" s="9">
-        <v>0.0489351394714</v>
+        <v>4.8935139471399998E-2</v>
       </c>
       <c r="O124" s="9"/>
       <c r="P124" s="4"/>
@@ -5215,13 +5371,13 @@
         <v>367022168.639</v>
       </c>
       <c r="T124" s="9">
-        <v>0.0491757473575</v>
+        <v>4.9175747357500001E-2</v>
       </c>
       <c r="U124" s="9"/>
       <c r="V124" s="4"/>
       <c r="W124" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5">
+    <row r="125" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -5229,36 +5385,36 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="9">
-        <v>504798086.406</v>
+        <v>504798086.40600002</v>
       </c>
       <c r="H125" s="9">
-        <v>0.0495693730044</v>
+        <v>4.9569373004400001E-2</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="4"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
       <c r="M125" s="9">
-        <v>766255335.306</v>
+        <v>766255335.30599999</v>
       </c>
       <c r="N125" s="9">
-        <v>0.0494104976061</v>
+        <v>4.9410497606100001E-2</v>
       </c>
       <c r="O125" s="9"/>
       <c r="P125" s="4"/>
       <c r="Q125" s="1"/>
       <c r="R125" s="1"/>
       <c r="S125" s="9">
-        <v>367715986.456</v>
+        <v>367715986.45599997</v>
       </c>
       <c r="T125" s="9">
-        <v>0.0496529234599</v>
+        <v>4.9652923459900002E-2</v>
       </c>
       <c r="U125" s="9"/>
       <c r="V125" s="4"/>
       <c r="W125" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5">
+    <row r="126" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -5266,36 +5422,36 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="9">
-        <v>506187595.186</v>
+        <v>506187595.18599999</v>
       </c>
       <c r="H126" s="9">
-        <v>0.0500458111782</v>
+        <v>5.0045811178199999E-2</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="4"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
       <c r="M126" s="9">
-        <v>769694925.146</v>
+        <v>769694925.14600003</v>
       </c>
       <c r="N126" s="9">
-        <v>0.0498856466257</v>
+        <v>4.9885646625699998E-2</v>
       </c>
       <c r="O126" s="9"/>
       <c r="P126" s="4"/>
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
       <c r="S126" s="9">
-        <v>368400663.794</v>
+        <v>368400663.79400003</v>
       </c>
       <c r="T126" s="9">
-        <v>0.0501298884402</v>
+        <v>5.0129888440199999E-2</v>
       </c>
       <c r="U126" s="9"/>
       <c r="V126" s="4"/>
       <c r="W126" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5">
+    <row r="127" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -5306,33 +5462,33 @@
         <v>507565008.111</v>
       </c>
       <c r="H127" s="9">
-        <v>0.0505220375904</v>
+        <v>5.0522037590399999E-2</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="4"/>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
       <c r="M127" s="9">
-        <v>773117589.769</v>
+        <v>773117589.76900005</v>
       </c>
       <c r="N127" s="9">
-        <v>0.0503605868495</v>
+        <v>5.0360586849499997E-2</v>
       </c>
       <c r="O127" s="9"/>
       <c r="P127" s="4"/>
       <c r="Q127" s="1"/>
       <c r="R127" s="1"/>
       <c r="S127" s="9">
-        <v>369075989.994</v>
+        <v>369075989.99400002</v>
       </c>
       <c r="T127" s="9">
-        <v>0.0506066316428</v>
+        <v>5.06066316428E-2</v>
       </c>
       <c r="U127" s="9"/>
       <c r="V127" s="4"/>
       <c r="W127" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5">
+    <row r="128" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -5340,36 +5496,36 @@
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="9">
-        <v>508930462.471</v>
+        <v>508930462.47100002</v>
       </c>
       <c r="H128" s="9">
-        <v>0.0509980521418</v>
+        <v>5.0998052141799997E-2</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="4"/>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
       <c r="M128" s="9">
-        <v>776523355.206</v>
+        <v>776523355.20599997</v>
       </c>
       <c r="N128" s="9">
-        <v>0.0508353186235</v>
+        <v>5.0835318623499999E-2</v>
       </c>
       <c r="O128" s="9"/>
       <c r="P128" s="4"/>
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
       <c r="S128" s="9">
-        <v>369742200.022</v>
+        <v>369742200.02200001</v>
       </c>
       <c r="T128" s="9">
-        <v>0.0510831526645</v>
+        <v>5.1083152664500003E-2</v>
       </c>
       <c r="U128" s="9"/>
       <c r="V128" s="4"/>
       <c r="W128" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5">
+    <row r="129" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -5380,33 +5536,33 @@
         <v>510284090.833</v>
       </c>
       <c r="H129" s="9">
-        <v>0.0514738547155</v>
+        <v>5.1473854715499999E-2</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="4"/>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
       <c r="M129" s="9">
-        <v>779912236.348</v>
+        <v>779912236.34800005</v>
       </c>
       <c r="N129" s="9">
-        <v>0.0513098423233</v>
+        <v>5.1309842323299999E-2</v>
       </c>
       <c r="O129" s="9"/>
       <c r="P129" s="4"/>
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
       <c r="S129" s="9">
-        <v>370399572.232</v>
+        <v>370399572.23199999</v>
       </c>
       <c r="T129" s="9">
-        <v>0.0515594534917</v>
+        <v>5.1559453491699998E-2</v>
       </c>
       <c r="U129" s="9"/>
       <c r="V129" s="4"/>
       <c r="W129" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5">
+    <row r="130" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -5414,36 +5570,36 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="9">
-        <v>511626022.461</v>
+        <v>511626022.46100003</v>
       </c>
       <c r="H130" s="9">
-        <v>0.0519494451772</v>
+        <v>5.1949445177200002E-2</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="4"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
       <c r="M130" s="9">
-        <v>783284247.354</v>
+        <v>783284247.35399997</v>
       </c>
       <c r="N130" s="9">
-        <v>0.0517841583522</v>
+        <v>5.1784158352200002E-2</v>
       </c>
       <c r="O130" s="9"/>
       <c r="P130" s="4"/>
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
       <c r="S130" s="9">
-        <v>371048415.882</v>
+        <v>371048415.88200003</v>
       </c>
       <c r="T130" s="9">
-        <v>0.0520355345424</v>
+        <v>5.2035534542400001E-2</v>
       </c>
       <c r="U130" s="9"/>
       <c r="V130" s="4"/>
       <c r="W130" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
+    <row r="131" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -5451,36 +5607,36 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="9">
-        <v>512956381.332</v>
+        <v>512956381.33200002</v>
       </c>
       <c r="H131" s="9">
-        <v>0.0524248233827</v>
+        <v>5.2424823382699999E-2</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="4"/>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
       <c r="M131" s="9">
-        <v>786639400.914</v>
+        <v>786639400.91400003</v>
       </c>
       <c r="N131" s="9">
-        <v>0.0522582671352</v>
+        <v>5.2258267135200001E-2</v>
       </c>
       <c r="O131" s="9"/>
       <c r="P131" s="4"/>
       <c r="Q131" s="1"/>
       <c r="R131" s="1"/>
       <c r="S131" s="9">
-        <v>371688750.044</v>
+        <v>371688750.04400003</v>
       </c>
       <c r="T131" s="9">
-        <v>0.0525113896957</v>
+        <v>5.2511389695700003E-2</v>
       </c>
       <c r="U131" s="9"/>
       <c r="V131" s="4"/>
       <c r="W131" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
+    <row r="132" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -5488,36 +5644,36 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="9">
-        <v>514275287.343</v>
+        <v>514275287.34299999</v>
       </c>
       <c r="H132" s="9">
-        <v>0.0528999891665</v>
+        <v>5.2899989166500003E-2</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="4"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
       <c r="M132" s="9">
-        <v>789977714.017</v>
+        <v>789977714.01699996</v>
       </c>
       <c r="N132" s="9">
-        <v>0.0527321691253</v>
+        <v>5.2732169125300002E-2</v>
       </c>
       <c r="O132" s="9"/>
       <c r="P132" s="4"/>
       <c r="Q132" s="1"/>
       <c r="R132" s="1"/>
       <c r="S132" s="9">
-        <v>372320844.762</v>
+        <v>372320844.76200002</v>
       </c>
       <c r="T132" s="9">
-        <v>0.052987024427</v>
+        <v>5.2987024426999998E-2</v>
       </c>
       <c r="U132" s="9"/>
       <c r="V132" s="4"/>
       <c r="W132" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
+    <row r="133" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -5528,33 +5684,33 @@
         <v>515582856.398</v>
       </c>
       <c r="H133" s="9">
-        <v>0.0533749423388</v>
+        <v>5.3374942338799997E-2</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="4"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
       <c r="M133" s="9">
-        <v>793299216.447</v>
+        <v>793299216.44700003</v>
       </c>
       <c r="N133" s="9">
-        <v>0.0532058647935</v>
+        <v>5.32058647935E-2</v>
       </c>
       <c r="O133" s="9"/>
       <c r="P133" s="4"/>
       <c r="Q133" s="1"/>
       <c r="R133" s="1"/>
       <c r="S133" s="9">
-        <v>372944795.211</v>
+        <v>372944795.21100003</v>
       </c>
       <c r="T133" s="9">
-        <v>0.0534624353895</v>
+        <v>5.3462435389499997E-2</v>
       </c>
       <c r="U133" s="9"/>
       <c r="V133" s="4"/>
       <c r="W133" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
+    <row r="134" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -5562,36 +5718,36 @@
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="9">
-        <v>516879200.294</v>
+        <v>516879200.29400003</v>
       </c>
       <c r="H134" s="9">
-        <v>0.0538496826772</v>
+        <v>5.38496826772E-2</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="4"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
       <c r="M134" s="9">
-        <v>796603948.871</v>
+        <v>796603948.87100005</v>
       </c>
       <c r="N134" s="9">
-        <v>0.0536793546385</v>
+        <v>5.3679354638500001E-2</v>
       </c>
       <c r="O134" s="9"/>
       <c r="P134" s="4"/>
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
       <c r="S134" s="9">
-        <v>373561067.964</v>
+        <v>373561067.96399999</v>
       </c>
       <c r="T134" s="9">
-        <v>0.0539376195218</v>
+        <v>5.3937619521799998E-2</v>
       </c>
       <c r="U134" s="9"/>
       <c r="V134" s="4"/>
       <c r="W134" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
+    <row r="135" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -5599,20 +5755,20 @@
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="9">
-        <v>518164426.967</v>
+        <v>518164426.96700001</v>
       </c>
       <c r="H135" s="9">
-        <v>0.0543242099153</v>
+        <v>5.4324209915300001E-2</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="4"/>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
       <c r="M135" s="9">
-        <v>799891970.065</v>
+        <v>799891970.06500006</v>
       </c>
       <c r="N135" s="9">
-        <v>0.0541526391792</v>
+        <v>5.4152639179199998E-2</v>
       </c>
       <c r="O135" s="9"/>
       <c r="P135" s="4"/>
@@ -5622,13 +5778,13 @@
         <v>374169761.995</v>
       </c>
       <c r="T135" s="9">
-        <v>0.054412576866</v>
+        <v>5.4412576865999998E-2</v>
       </c>
       <c r="U135" s="9"/>
       <c r="V135" s="4"/>
       <c r="W135" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5">
+    <row r="136" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -5636,36 +5792,36 @@
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="9">
-        <v>519438641.453</v>
+        <v>519438641.45300001</v>
       </c>
       <c r="H136" s="9">
-        <v>0.0547985237441</v>
+        <v>5.4798523744099999E-2</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="4"/>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
       <c r="M136" s="9">
-        <v>803163348.595</v>
+        <v>803163348.59500003</v>
       </c>
       <c r="N136" s="9">
-        <v>0.0546257189377</v>
+        <v>5.4625718937699998E-2</v>
       </c>
       <c r="O136" s="9"/>
       <c r="P136" s="4"/>
       <c r="Q136" s="1"/>
       <c r="R136" s="1"/>
       <c r="S136" s="9">
-        <v>374770862.419</v>
+        <v>374770862.41900003</v>
       </c>
       <c r="T136" s="9">
-        <v>0.0548873011347</v>
+        <v>5.4887301134700001E-2</v>
       </c>
       <c r="U136" s="9"/>
       <c r="V136" s="4"/>
       <c r="W136" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
+    <row r="137" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -5673,20 +5829,20 @@
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="9">
-        <v>520701946.48</v>
+        <v>520701946.48000002</v>
       </c>
       <c r="H137" s="9">
-        <v>0.0552726238108</v>
+        <v>5.5272623810800003E-2</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="4"/>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
       <c r="M137" s="9">
-        <v>806418163.805</v>
+        <v>806418163.80499995</v>
       </c>
       <c r="N137" s="9">
-        <v>0.0550985944056</v>
+        <v>5.5098594405599999E-2</v>
       </c>
       <c r="O137" s="9"/>
       <c r="P137" s="4"/>
@@ -5696,13 +5852,13 @@
         <v>375364557.977</v>
       </c>
       <c r="T137" s="9">
-        <v>0.0553617927018</v>
+        <v>5.53617927018E-2</v>
       </c>
       <c r="U137" s="9"/>
       <c r="V137" s="4"/>
       <c r="W137" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5">
+    <row r="138" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -5710,36 +5866,36 @@
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="9">
-        <v>521954442.624</v>
+        <v>521954442.62400001</v>
       </c>
       <c r="H138" s="9">
-        <v>0.0557465097275</v>
+        <v>5.5746509727499997E-2</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="4"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
       <c r="M138" s="9">
-        <v>809656496.58</v>
+        <v>809656496.58000004</v>
       </c>
       <c r="N138" s="9">
-        <v>0.0555712660122</v>
+        <v>5.5571266012199999E-2</v>
       </c>
       <c r="O138" s="9"/>
       <c r="P138" s="4"/>
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
       <c r="S138" s="9">
-        <v>375950929.945</v>
+        <v>375950929.94499999</v>
       </c>
       <c r="T138" s="9">
-        <v>0.055836056611</v>
+        <v>5.5836056611000003E-2</v>
       </c>
       <c r="U138" s="9"/>
       <c r="V138" s="4"/>
       <c r="W138" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
+    <row r="139" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -5747,36 +5903,36 @@
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="9">
-        <v>523196228.416</v>
+        <v>523196228.41600001</v>
       </c>
       <c r="H139" s="9">
-        <v>0.0562201810793</v>
+        <v>5.6220181079299998E-2</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="4"/>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
       <c r="M139" s="9">
-        <v>812878427.503</v>
+        <v>812878427.50300002</v>
       </c>
       <c r="N139" s="9">
-        <v>0.0560437340886</v>
+        <v>5.60437340886E-2</v>
       </c>
       <c r="O139" s="9"/>
       <c r="P139" s="4"/>
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
       <c r="S139" s="9">
-        <v>376529987.849</v>
+        <v>376529987.84899998</v>
       </c>
       <c r="T139" s="9">
-        <v>0.0563100935276</v>
+        <v>5.6310093527599997E-2</v>
       </c>
       <c r="U139" s="9"/>
       <c r="V139" s="4"/>
       <c r="W139" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5">
+    <row r="140" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -5784,36 +5940,36 @@
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="9">
-        <v>524427400.526</v>
+        <v>524427400.52600002</v>
       </c>
       <c r="H140" s="9">
-        <v>0.0566936374333</v>
+        <v>5.6693637433299998E-2</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="4"/>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
       <c r="M140" s="9">
-        <v>816084035.58</v>
+        <v>816084035.58000004</v>
       </c>
       <c r="N140" s="9">
-        <v>0.056515998854</v>
+        <v>5.6515998854000001E-2</v>
       </c>
       <c r="O140" s="9"/>
       <c r="P140" s="4"/>
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
       <c r="S140" s="9">
-        <v>377101948.254</v>
+        <v>377101948.25400001</v>
       </c>
       <c r="T140" s="9">
-        <v>0.056783907378</v>
+        <v>5.6783907378000001E-2</v>
       </c>
       <c r="U140" s="9"/>
       <c r="V140" s="4"/>
       <c r="W140" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5">
+    <row r="141" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -5821,10 +5977,10 @@
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="9">
-        <v>525648054.159</v>
+        <v>525648054.15899998</v>
       </c>
       <c r="H141" s="9">
-        <v>0.0571668783559</v>
+        <v>5.7166878355900001E-2</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="4"/>
@@ -5834,23 +5990,23 @@
         <v>819273397.375</v>
       </c>
       <c r="N141" s="9">
-        <v>0.0569880604145</v>
+        <v>5.6988060414499997E-2</v>
       </c>
       <c r="O141" s="9"/>
       <c r="P141" s="4"/>
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
       <c r="S141" s="9">
-        <v>377666978.891</v>
+        <v>377666978.89099997</v>
       </c>
       <c r="T141" s="9">
-        <v>0.0572575047601</v>
+        <v>5.7257504760099998E-2</v>
       </c>
       <c r="U141" s="9"/>
       <c r="V141" s="4"/>
       <c r="W141" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5">
+    <row r="142" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -5858,36 +6014,36 @@
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="9">
-        <v>526858283.446</v>
+        <v>526858283.44599998</v>
       </c>
       <c r="H142" s="9">
-        <v>0.0576399034269</v>
+        <v>5.7639903426900001E-2</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="4"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
       <c r="M142" s="9">
-        <v>822446585.184</v>
+        <v>822446585.18400002</v>
       </c>
       <c r="N142" s="9">
-        <v>0.0574599187678</v>
+        <v>5.7459918767800003E-2</v>
       </c>
       <c r="O142" s="9"/>
       <c r="P142" s="4"/>
       <c r="Q142" s="1"/>
       <c r="R142" s="1"/>
       <c r="S142" s="9">
-        <v>378225190.814</v>
+        <v>378225190.81400001</v>
       </c>
       <c r="T142" s="9">
-        <v>0.0577308967185</v>
+        <v>5.7730896718499999E-2</v>
       </c>
       <c r="U142" s="9"/>
       <c r="V142" s="4"/>
       <c r="W142" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
+    <row r="143" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -5898,33 +6054,33 @@
         <v>528058182.551</v>
       </c>
       <c r="H143" s="9">
-        <v>0.0581127122586</v>
+        <v>5.8112712258599999E-2</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="4"/>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
       <c r="M143" s="9">
-        <v>825603667.418</v>
+        <v>825603667.41799998</v>
       </c>
       <c r="N143" s="9">
-        <v>0.0579315738201</v>
+        <v>5.7931573820100002E-2</v>
       </c>
       <c r="O143" s="9"/>
       <c r="P143" s="4"/>
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
       <c r="S143" s="9">
-        <v>378776770.748</v>
+        <v>378776770.74800003</v>
       </c>
       <c r="T143" s="9">
-        <v>0.0582040840985</v>
+        <v>5.8204084098500003E-2</v>
       </c>
       <c r="U143" s="9"/>
       <c r="V143" s="4"/>
       <c r="W143" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5">
+    <row r="144" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -5932,36 +6088,36 @@
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="9">
-        <v>529247844.541</v>
+        <v>529247844.54100001</v>
       </c>
       <c r="H144" s="9">
-        <v>0.0585853045123</v>
+        <v>5.8585304512299999E-2</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="4"/>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
       <c r="M144" s="9">
-        <v>828744707.622</v>
+        <v>828744707.62199998</v>
       </c>
       <c r="N144" s="9">
-        <v>0.0584030254021</v>
+        <v>5.8403025402100003E-2</v>
       </c>
       <c r="O144" s="9"/>
       <c r="P144" s="4"/>
       <c r="Q144" s="1"/>
       <c r="R144" s="1"/>
       <c r="S144" s="9">
-        <v>379321705.055</v>
+        <v>379321705.05500001</v>
       </c>
       <c r="T144" s="9">
-        <v>0.0586770632632</v>
+        <v>5.8677063263199998E-2</v>
       </c>
       <c r="U144" s="9"/>
       <c r="V144" s="4"/>
       <c r="W144" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
+    <row r="145" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -5969,20 +6125,20 @@
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="9">
-        <v>530427363.749</v>
+        <v>530427363.74900001</v>
       </c>
       <c r="H145" s="9">
-        <v>0.0590576799039</v>
+        <v>5.9057679903899998E-2</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="4"/>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
       <c r="M145" s="9">
-        <v>831869765.461</v>
+        <v>831869765.46099997</v>
       </c>
       <c r="N145" s="9">
-        <v>0.0588742732896</v>
+        <v>5.8874273289600002E-2</v>
       </c>
       <c r="O145" s="9"/>
       <c r="P145" s="4"/>
@@ -5992,13 +6148,13 @@
         <v>379859995.333</v>
       </c>
       <c r="T145" s="9">
-        <v>0.05914983581</v>
+        <v>5.9149835810000002E-2</v>
       </c>
       <c r="U145" s="9"/>
       <c r="V145" s="4"/>
       <c r="W145" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5">
+    <row r="146" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -6006,20 +6162,20 @@
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="9">
-        <v>531596835.188</v>
+        <v>531596835.18800002</v>
       </c>
       <c r="H146" s="9">
-        <v>0.0595298382102</v>
+        <v>5.9529838210199998E-2</v>
       </c>
       <c r="I146" s="9"/>
       <c r="J146" s="4"/>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
       <c r="M146" s="9">
-        <v>834978899.702</v>
+        <v>834978899.70200002</v>
       </c>
       <c r="N146" s="9">
-        <v>0.0593453172119</v>
+        <v>5.9345317211899999E-2</v>
       </c>
       <c r="O146" s="9"/>
       <c r="P146" s="4"/>
@@ -6029,13 +6185,13 @@
         <v>380391785.403</v>
       </c>
       <c r="T146" s="9">
-        <v>0.0596223972804</v>
+        <v>5.9622397280400002E-2</v>
       </c>
       <c r="U146" s="9"/>
       <c r="V146" s="4"/>
       <c r="W146" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5">
+    <row r="147" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -6043,20 +6199,20 @@
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="9">
-        <v>532756353.367</v>
+        <v>532756353.36699998</v>
       </c>
       <c r="H147" s="9">
-        <v>0.0600017792629</v>
+        <v>6.0001779262899999E-2</v>
       </c>
       <c r="I147" s="9"/>
       <c r="J147" s="4"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
       <c r="M147" s="9">
-        <v>838072168.318</v>
+        <v>838072168.31799996</v>
       </c>
       <c r="N147" s="9">
-        <v>0.0598161568574</v>
+        <v>5.98161568574E-2</v>
       </c>
       <c r="O147" s="9"/>
       <c r="P147" s="4"/>
@@ -6066,13 +6222,13 @@
         <v>380917265.278</v>
       </c>
       <c r="T147" s="9">
-        <v>0.0600947452207</v>
+        <v>6.0094745220699998E-2</v>
       </c>
       <c r="U147" s="9"/>
       <c r="V147" s="4"/>
       <c r="W147" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5">
+    <row r="148" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -6080,36 +6236,36 @@
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="9">
-        <v>533906014.763</v>
+        <v>533906014.76300001</v>
       </c>
       <c r="H148" s="9">
-        <v>0.060473502939</v>
+        <v>6.0473502939000001E-2</v>
       </c>
       <c r="I148" s="9"/>
       <c r="J148" s="4"/>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
       <c r="M148" s="9">
-        <v>841149634.113</v>
+        <v>841149634.11300004</v>
       </c>
       <c r="N148" s="9">
-        <v>0.0602867918816</v>
+        <v>6.0286791881600001E-2</v>
       </c>
       <c r="O148" s="9"/>
       <c r="P148" s="4"/>
       <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
       <c r="S148" s="9">
-        <v>381436668.873</v>
+        <v>381436668.87300003</v>
       </c>
       <c r="T148" s="9">
-        <v>0.0605668819145</v>
+        <v>6.05668819145E-2</v>
       </c>
       <c r="U148" s="9"/>
       <c r="V148" s="4"/>
       <c r="W148" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="19.5">
+    <row r="149" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -6117,36 +6273,36 @@
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="9">
-        <v>535045915.234</v>
+        <v>535045915.23400003</v>
       </c>
       <c r="H149" s="9">
-        <v>0.0609450091521</v>
+        <v>6.0945009152100001E-2</v>
       </c>
       <c r="I149" s="9"/>
       <c r="J149" s="4"/>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
       <c r="M149" s="9">
-        <v>844211360.712</v>
+        <v>844211360.71200001</v>
       </c>
       <c r="N149" s="9">
-        <v>0.0607572219012</v>
+        <v>6.0757221901199997E-2</v>
       </c>
       <c r="O149" s="9"/>
       <c r="P149" s="4"/>
       <c r="Q149" s="1"/>
       <c r="R149" s="1"/>
       <c r="S149" s="9">
-        <v>381950097.18</v>
+        <v>381950097.18000001</v>
       </c>
       <c r="T149" s="9">
-        <v>0.0610388093974</v>
+        <v>6.1038809397400001E-2</v>
       </c>
       <c r="U149" s="9"/>
       <c r="V149" s="4"/>
       <c r="W149" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5">
+    <row r="150" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -6157,33 +6313,33 @@
         <v>536176149.991</v>
       </c>
       <c r="H150" s="9">
-        <v>0.0614162978495</v>
+        <v>6.14162978495E-2</v>
       </c>
       <c r="I150" s="9"/>
       <c r="J150" s="4"/>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
       <c r="M150" s="9">
-        <v>847257413.601</v>
+        <v>847257413.60099995</v>
       </c>
       <c r="N150" s="9">
-        <v>0.061227446491</v>
+        <v>6.1227446491000002E-2</v>
       </c>
       <c r="O150" s="9"/>
       <c r="P150" s="4"/>
       <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
       <c r="S150" s="9">
-        <v>382457641.015</v>
+        <v>382457641.01499999</v>
       </c>
       <c r="T150" s="9">
-        <v>0.0615105173819</v>
+        <v>6.1510517381899998E-2</v>
       </c>
       <c r="U150" s="9"/>
       <c r="V150" s="4"/>
       <c r="W150" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5">
+    <row r="151" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -6191,36 +6347,36 @@
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="9">
-        <v>537296813.044</v>
+        <v>537296813.04400003</v>
       </c>
       <c r="H151" s="9">
-        <v>0.0618873690003</v>
+        <v>6.1887369000300001E-2</v>
       </c>
       <c r="I151" s="9"/>
       <c r="J151" s="4"/>
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
       <c r="M151" s="9">
-        <v>850287861.414</v>
+        <v>850287861.41400003</v>
       </c>
       <c r="N151" s="9">
-        <v>0.0616974651794</v>
+        <v>6.1697465179400002E-2</v>
       </c>
       <c r="O151" s="9"/>
       <c r="P151" s="4"/>
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
       <c r="S151" s="9">
-        <v>382959750.064</v>
+        <v>382959750.06400001</v>
       </c>
       <c r="T151" s="9">
-        <v>0.0619819907328</v>
+        <v>6.1981990732800002E-2</v>
       </c>
       <c r="U151" s="9"/>
       <c r="V151" s="4"/>
       <c r="W151" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="19.5">
+    <row r="152" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -6228,36 +6384,36 @@
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="9">
-        <v>538407996.4</v>
+        <v>538407996.39999998</v>
       </c>
       <c r="H152" s="9">
-        <v>0.0623582226051</v>
+        <v>6.2358222605100003E-2</v>
       </c>
       <c r="I152" s="9"/>
       <c r="J152" s="4"/>
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
       <c r="M152" s="9">
-        <v>853302770.787</v>
+        <v>853302770.78699994</v>
       </c>
       <c r="N152" s="9">
-        <v>0.0621672774599</v>
+        <v>6.21672774599E-2</v>
       </c>
       <c r="O152" s="9"/>
       <c r="P152" s="4"/>
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
       <c r="S152" s="9">
-        <v>383456435.224</v>
+        <v>383456435.22399998</v>
       </c>
       <c r="T152" s="9">
-        <v>0.0624532327567</v>
+        <v>6.2453232756699999E-2</v>
       </c>
       <c r="U152" s="9"/>
       <c r="V152" s="4"/>
       <c r="W152" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5">
+    <row r="153" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -6265,36 +6421,36 @@
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="9">
-        <v>539509792.654</v>
+        <v>539509792.65400004</v>
       </c>
       <c r="H153" s="9">
-        <v>0.0628288586896</v>
+        <v>6.2828858689600003E-2</v>
       </c>
       <c r="I153" s="9"/>
       <c r="J153" s="4"/>
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
       <c r="M153" s="9">
-        <v>856302205.512</v>
+        <v>856302205.51199996</v>
       </c>
       <c r="N153" s="9">
-        <v>0.0626368828078</v>
+        <v>6.2636882807799998E-2</v>
       </c>
       <c r="O153" s="9"/>
       <c r="P153" s="4"/>
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
       <c r="S153" s="9">
-        <v>383947654.336</v>
+        <v>383947654.33600003</v>
       </c>
       <c r="T153" s="9">
-        <v>0.0629242474108</v>
+        <v>6.2924247410799994E-2</v>
       </c>
       <c r="U153" s="9"/>
       <c r="V153" s="4"/>
       <c r="W153" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="19.5">
+    <row r="154" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -6302,10 +6458,10 @@
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="9">
-        <v>540602289.537</v>
+        <v>540602289.53699994</v>
       </c>
       <c r="H154" s="9">
-        <v>0.063299277313</v>
+        <v>6.3299277313000002E-2</v>
       </c>
       <c r="I154" s="9"/>
       <c r="J154" s="4"/>
@@ -6315,23 +6471,23 @@
         <v>859286230.148</v>
       </c>
       <c r="N154" s="9">
-        <v>0.063106280719</v>
+        <v>6.3106280718999999E-2</v>
       </c>
       <c r="O154" s="9"/>
       <c r="P154" s="4"/>
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
       <c r="S154" s="9">
-        <v>384433325.211</v>
+        <v>384433325.21100003</v>
       </c>
       <c r="T154" s="9">
-        <v>0.0633950350262</v>
+        <v>6.3395035026200003E-2</v>
       </c>
       <c r="U154" s="9"/>
       <c r="V154" s="4"/>
       <c r="W154" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="19.5">
+    <row r="155" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -6339,36 +6495,36 @@
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="9">
-        <v>541685576.2</v>
+        <v>541685576.20000005</v>
       </c>
       <c r="H155" s="9">
-        <v>0.0637694785662</v>
+        <v>6.3769478566199994E-2</v>
       </c>
       <c r="I155" s="9"/>
       <c r="J155" s="4"/>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
       <c r="M155" s="9">
-        <v>862254906.911</v>
+        <v>862254906.91100001</v>
       </c>
       <c r="N155" s="9">
-        <v>0.0635754707664</v>
+        <v>6.3575470766399994E-2</v>
       </c>
       <c r="O155" s="9"/>
       <c r="P155" s="4"/>
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
       <c r="S155" s="9">
-        <v>384913612.467</v>
+        <v>384913612.46700001</v>
       </c>
       <c r="T155" s="9">
-        <v>0.0638655960709</v>
+        <v>6.3865596070900005E-2</v>
       </c>
       <c r="U155" s="9"/>
       <c r="V155" s="4"/>
       <c r="W155" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="19.5">
+    <row r="156" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -6376,20 +6532,20 @@
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="9">
-        <v>542759739.184</v>
+        <v>542759739.18400002</v>
       </c>
       <c r="H156" s="9">
-        <v>0.0642394625849</v>
+        <v>6.4239462584900001E-2</v>
       </c>
       <c r="I156" s="9"/>
       <c r="J156" s="4"/>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
       <c r="M156" s="9">
-        <v>865208298.437</v>
+        <v>865208298.43700004</v>
       </c>
       <c r="N156" s="9">
-        <v>0.0640444526578</v>
+        <v>6.4044452657799997E-2</v>
       </c>
       <c r="O156" s="9"/>
       <c r="P156" s="4"/>
@@ -6399,13 +6555,13 @@
         <v>385388718.787</v>
       </c>
       <c r="T156" s="9">
-        <v>0.0643359325995</v>
+        <v>6.4335932599500004E-2</v>
       </c>
       <c r="U156" s="9"/>
       <c r="V156" s="4"/>
       <c r="W156" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="19.5">
+    <row r="157" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -6413,20 +6569,20 @@
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="G157" s="9">
-        <v>543824863.998</v>
+        <v>543824863.99800003</v>
       </c>
       <c r="H157" s="9">
-        <v>0.06470922954</v>
+        <v>6.4709229539999996E-2</v>
       </c>
       <c r="I157" s="9"/>
       <c r="J157" s="4"/>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
       <c r="M157" s="9">
-        <v>868146464.647</v>
+        <v>868146464.64699996</v>
       </c>
       <c r="N157" s="9">
-        <v>0.0645132262847</v>
+        <v>6.4513226284700007E-2</v>
       </c>
       <c r="O157" s="9"/>
       <c r="P157" s="4"/>
@@ -6436,13 +6592,13 @@
         <v>385858724.653</v>
       </c>
       <c r="T157" s="9">
-        <v>0.0648060453809</v>
+        <v>6.4806045380899999E-2</v>
       </c>
       <c r="U157" s="9"/>
       <c r="V157" s="4"/>
       <c r="W157" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="19.5">
+    <row r="158" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -6450,36 +6606,36 @@
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="9">
-        <v>544881037.585</v>
+        <v>544881037.58500004</v>
       </c>
       <c r="H158" s="9">
-        <v>0.0651787796429</v>
+        <v>6.5178779642900003E-2</v>
       </c>
       <c r="I158" s="9"/>
       <c r="J158" s="4"/>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
       <c r="M158" s="9">
-        <v>871069462.358</v>
+        <v>871069462.35800004</v>
       </c>
       <c r="N158" s="9">
-        <v>0.0649817917249</v>
+        <v>6.4981791724899998E-2</v>
       </c>
       <c r="O158" s="9"/>
       <c r="P158" s="4"/>
       <c r="Q158" s="1"/>
       <c r="R158" s="1"/>
       <c r="S158" s="9">
-        <v>386323752.383</v>
+        <v>386323752.38300002</v>
       </c>
       <c r="T158" s="9">
-        <v>0.065275939281</v>
+        <v>6.5275939281000006E-2</v>
       </c>
       <c r="U158" s="9"/>
       <c r="V158" s="4"/>
       <c r="W158" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="19.5">
+    <row r="159" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -6487,36 +6643,36 @@
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="9">
-        <v>545928346.563</v>
+        <v>545928346.56299996</v>
       </c>
       <c r="H159" s="9">
-        <v>0.0656481131376</v>
+        <v>6.5648113137599995E-2</v>
       </c>
       <c r="I159" s="9"/>
       <c r="J159" s="4"/>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
       <c r="M159" s="9">
-        <v>873977343.333</v>
+        <v>873977343.33299994</v>
       </c>
       <c r="N159" s="9">
-        <v>0.0654501492098</v>
+        <v>6.5450149209799996E-2</v>
       </c>
       <c r="O159" s="9"/>
       <c r="P159" s="4"/>
       <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
       <c r="S159" s="9">
-        <v>386784275.753</v>
+        <v>386784275.75300002</v>
       </c>
       <c r="T159" s="9">
-        <v>0.0657456218959</v>
+        <v>6.5745621895899997E-2</v>
       </c>
       <c r="U159" s="9"/>
       <c r="V159" s="4"/>
       <c r="W159" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="19.5">
+    <row r="160" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -6524,36 +6680,36 @@
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="G160" s="9">
-        <v>546966877.143</v>
+        <v>546966877.14300001</v>
       </c>
       <c r="H160" s="9">
-        <v>0.0661172302913</v>
+        <v>6.6117230291299997E-2</v>
       </c>
       <c r="I160" s="9"/>
       <c r="J160" s="4"/>
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
       <c r="M160" s="9">
-        <v>876870153.607</v>
+        <v>876870153.60699999</v>
       </c>
       <c r="N160" s="9">
-        <v>0.065918299066</v>
+        <v>6.5918299065999997E-2</v>
       </c>
       <c r="O160" s="9"/>
       <c r="P160" s="4"/>
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
       <c r="S160" s="9">
-        <v>387240179.137</v>
+        <v>387240179.13700002</v>
       </c>
       <c r="T160" s="9">
-        <v>0.0662150912037</v>
+        <v>6.6215091203700005E-2</v>
       </c>
       <c r="U160" s="9"/>
       <c r="V160" s="4"/>
       <c r="W160" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="19.5">
+    <row r="161" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -6564,33 +6720,33 @@
         <v>547996717.273</v>
       </c>
       <c r="H161" s="9">
-        <v>0.0665861313858</v>
+        <v>6.6586131385799996E-2</v>
       </c>
       <c r="I161" s="9"/>
       <c r="J161" s="4"/>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
       <c r="M161" s="9">
-        <v>879747929.213</v>
+        <v>879747929.21300006</v>
       </c>
       <c r="N161" s="9">
-        <v>0.066386241648</v>
+        <v>6.6386241647999999E-2</v>
       </c>
       <c r="O161" s="9"/>
       <c r="P161" s="4"/>
       <c r="Q161" s="1"/>
       <c r="R161" s="1"/>
       <c r="S161" s="9">
-        <v>387691387.115</v>
+        <v>387691387.11500001</v>
       </c>
       <c r="T161" s="9">
-        <v>0.0666843363281</v>
+        <v>6.6684336328100002E-2</v>
       </c>
       <c r="U161" s="9"/>
       <c r="V161" s="4"/>
       <c r="W161" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="19.5">
+    <row r="162" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -6598,36 +6754,36 @@
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="G162" s="9">
-        <v>549017954.379</v>
+        <v>549017954.37899995</v>
       </c>
       <c r="H162" s="9">
-        <v>0.0670548167118</v>
+        <v>6.7054816711799997E-2</v>
       </c>
       <c r="I162" s="9"/>
       <c r="J162" s="4"/>
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
       <c r="M162" s="9">
-        <v>882610699.219</v>
+        <v>882610699.21899998</v>
       </c>
       <c r="N162" s="9">
-        <v>0.0668539772796</v>
+        <v>6.6853977279600005E-2</v>
       </c>
       <c r="O162" s="9"/>
       <c r="P162" s="4"/>
       <c r="Q162" s="1"/>
       <c r="R162" s="1"/>
       <c r="S162" s="9">
-        <v>388137991.877</v>
+        <v>388137991.87699997</v>
       </c>
       <c r="T162" s="9">
-        <v>0.0671533649786</v>
+        <v>6.71533649786E-2</v>
       </c>
       <c r="U162" s="9"/>
       <c r="V162" s="4"/>
       <c r="W162" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="19.5">
+    <row r="163" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -6635,20 +6791,20 @@
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="G163" s="9">
-        <v>550030676.65</v>
+        <v>550030676.64999998</v>
       </c>
       <c r="H163" s="9">
-        <v>0.0675232865586</v>
+        <v>6.7523286558600001E-2</v>
       </c>
       <c r="I163" s="9"/>
       <c r="J163" s="4"/>
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
       <c r="M163" s="9">
-        <v>885458486.217</v>
+        <v>885458486.21700001</v>
       </c>
       <c r="N163" s="9">
-        <v>0.067321506216</v>
+        <v>6.7321506215999999E-2</v>
       </c>
       <c r="O163" s="9"/>
       <c r="P163" s="4"/>
@@ -6658,13 +6814,13 @@
         <v>388579954.278</v>
       </c>
       <c r="T163" s="9">
-        <v>0.067622182804</v>
+        <v>6.7622182803999994E-2</v>
       </c>
       <c r="U163" s="9"/>
       <c r="V163" s="4"/>
       <c r="W163" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="19.5">
+    <row r="164" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -6672,36 +6828,36 @@
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="9">
-        <v>551034973.793</v>
+        <v>551034973.79299998</v>
       </c>
       <c r="H164" s="9">
-        <v>0.0679915412071</v>
+        <v>6.7991541207100006E-2</v>
       </c>
       <c r="I164" s="9"/>
       <c r="J164" s="4"/>
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
       <c r="M164" s="9">
-        <v>888291308.394</v>
+        <v>888291308.39400005</v>
       </c>
       <c r="N164" s="9">
-        <v>0.067788828623</v>
+        <v>6.7788828622999994E-2</v>
       </c>
       <c r="O164" s="9"/>
       <c r="P164" s="4"/>
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
       <c r="S164" s="9">
-        <v>389017386.799</v>
+        <v>389017386.79900002</v>
       </c>
       <c r="T164" s="9">
-        <v>0.0680907863921</v>
+        <v>6.8090786392100006E-2</v>
       </c>
       <c r="U164" s="9"/>
       <c r="V164" s="4"/>
       <c r="W164" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="19.5">
+    <row r="165" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -6709,36 +6865,36 @@
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="9">
-        <v>552030936.592</v>
+        <v>552030936.59200001</v>
       </c>
       <c r="H165" s="9">
-        <v>0.0684595809229</v>
+        <v>6.8459580922899999E-2</v>
       </c>
       <c r="I165" s="9"/>
       <c r="J165" s="4"/>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
       <c r="M165" s="9">
-        <v>891109179.367</v>
+        <v>891109179.36699998</v>
       </c>
       <c r="N165" s="9">
-        <v>0.0682559445821</v>
+        <v>6.8255944582100006E-2</v>
       </c>
       <c r="O165" s="9"/>
       <c r="P165" s="4"/>
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
       <c r="S165" s="9">
-        <v>389450413.184</v>
+        <v>389450413.18400002</v>
       </c>
       <c r="T165" s="9">
-        <v>0.0685591736627</v>
+        <v>6.8559173662699993E-2</v>
       </c>
       <c r="U165" s="9"/>
       <c r="V165" s="4"/>
       <c r="W165" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="19.5">
+    <row r="166" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -6746,36 +6902,36 @@
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="G166" s="9">
-        <v>553018655.719</v>
+        <v>553018655.71899998</v>
       </c>
       <c r="H166" s="9">
-        <v>0.0689274059495</v>
+        <v>6.8927405949500004E-2</v>
       </c>
       <c r="I166" s="9"/>
       <c r="J166" s="4"/>
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
       <c r="M166" s="9">
-        <v>893912112.47</v>
+        <v>893912112.47000003</v>
       </c>
       <c r="N166" s="9">
-        <v>0.0687228541067</v>
+        <v>6.8722854106699996E-2</v>
       </c>
       <c r="O166" s="9"/>
       <c r="P166" s="4"/>
       <c r="Q166" s="1"/>
       <c r="R166" s="1"/>
       <c r="S166" s="9">
-        <v>389879102.423</v>
+        <v>389879102.42299998</v>
       </c>
       <c r="T166" s="9">
-        <v>0.0690273397646</v>
+        <v>6.9027339764600001E-2</v>
       </c>
       <c r="U166" s="9"/>
       <c r="V166" s="4"/>
       <c r="W166" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="19.5">
+    <row r="167" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -6783,36 +6939,36 @@
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="9">
-        <v>553998222.208</v>
+        <v>553998222.20799994</v>
       </c>
       <c r="H167" s="9">
-        <v>0.0693950165021</v>
+        <v>6.9395016502100004E-2</v>
       </c>
       <c r="I167" s="9"/>
       <c r="J167" s="4"/>
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
       <c r="M167" s="9">
-        <v>896700127.408</v>
+        <v>896700127.40799999</v>
       </c>
       <c r="N167" s="9">
-        <v>0.0691895571517</v>
+        <v>6.9189557151699999E-2</v>
       </c>
       <c r="O167" s="9"/>
       <c r="P167" s="4"/>
       <c r="Q167" s="1"/>
       <c r="R167" s="1"/>
       <c r="S167" s="9">
-        <v>390303949.614</v>
+        <v>390303949.61400002</v>
       </c>
       <c r="T167" s="9">
-        <v>0.0694952817974</v>
+        <v>6.9495281797399999E-2</v>
       </c>
       <c r="U167" s="9"/>
       <c r="V167" s="4"/>
       <c r="W167" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="19.5">
+    <row r="168" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -6820,36 +6976,36 @@
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="G168" s="9">
-        <v>554969726.336</v>
+        <v>554969726.33599997</v>
       </c>
       <c r="H168" s="9">
-        <v>0.0698624127581</v>
+        <v>6.9862412758099998E-2</v>
       </c>
       <c r="I168" s="9"/>
       <c r="J168" s="4"/>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
       <c r="M168" s="9">
-        <v>899473258.383</v>
+        <v>899473258.38300002</v>
       </c>
       <c r="N168" s="9">
-        <v>0.0696560536328</v>
+        <v>6.9656053632800002E-2</v>
       </c>
       <c r="O168" s="9"/>
       <c r="P168" s="4"/>
       <c r="Q168" s="1"/>
       <c r="R168" s="1"/>
       <c r="S168" s="9">
-        <v>390725074.571</v>
+        <v>390725074.57099998</v>
       </c>
       <c r="T168" s="9">
-        <v>0.0699630020714</v>
+        <v>6.9963002071399993E-2</v>
       </c>
       <c r="U168" s="9"/>
       <c r="V168" s="4"/>
       <c r="W168" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="19.5">
+    <row r="169" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -6857,36 +7013,36 @@
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="9">
-        <v>555933256.687</v>
+        <v>555933256.68700004</v>
       </c>
       <c r="H169" s="9">
-        <v>0.0703295948618</v>
+        <v>7.0329594861800002E-2</v>
       </c>
       <c r="I169" s="9"/>
       <c r="J169" s="4"/>
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
       <c r="M169" s="9">
-        <v>902231553.605</v>
+        <v>902231553.60500002</v>
       </c>
       <c r="N169" s="9">
-        <v>0.0701223434344</v>
+        <v>7.0122343434400006E-2</v>
       </c>
       <c r="O169" s="9"/>
       <c r="P169" s="4"/>
       <c r="Q169" s="1"/>
       <c r="R169" s="1"/>
       <c r="S169" s="9">
-        <v>391142461.881</v>
+        <v>391142461.88099998</v>
       </c>
       <c r="T169" s="9">
-        <v>0.0704305011877</v>
+        <v>7.0430501187700001E-2</v>
       </c>
       <c r="U169" s="9"/>
       <c r="V169" s="4"/>
       <c r="W169" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="19.5">
+    <row r="170" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -6894,36 +7050,36 @@
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="9">
-        <v>556888901.201</v>
+        <v>556888901.20099998</v>
       </c>
       <c r="H170" s="9">
-        <v>0.0707965629165</v>
+        <v>7.0796562916499994E-2</v>
       </c>
       <c r="I170" s="9"/>
       <c r="J170" s="4"/>
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
       <c r="M170" s="9">
-        <v>904975082.021</v>
+        <v>904975082.02100003</v>
       </c>
       <c r="N170" s="9">
-        <v>0.0705884264073</v>
+        <v>7.0588426407299995E-2</v>
       </c>
       <c r="O170" s="9"/>
       <c r="P170" s="4"/>
       <c r="Q170" s="1"/>
       <c r="R170" s="1"/>
       <c r="S170" s="9">
-        <v>391555907.913</v>
+        <v>391555907.91299999</v>
       </c>
       <c r="T170" s="9">
-        <v>0.0708977719938</v>
+        <v>7.0897771993799999E-2</v>
       </c>
       <c r="U170" s="9"/>
       <c r="V170" s="4"/>
       <c r="W170" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="19.5">
+    <row r="171" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -6931,36 +7087,36 @@
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="G171" s="9">
-        <v>557836747.21</v>
+        <v>557836747.21000004</v>
       </c>
       <c r="H171" s="9">
-        <v>0.071263316998</v>
+        <v>7.1263316997999995E-2</v>
       </c>
       <c r="I171" s="9"/>
       <c r="J171" s="4"/>
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
       <c r="M171" s="9">
-        <v>907703935.231</v>
+        <v>907703935.23099995</v>
       </c>
       <c r="N171" s="9">
-        <v>0.0710543023703</v>
+        <v>7.1054302370299999E-2</v>
       </c>
       <c r="O171" s="9"/>
       <c r="P171" s="4"/>
       <c r="Q171" s="1"/>
       <c r="R171" s="1"/>
       <c r="S171" s="9">
-        <v>391965363.396</v>
+        <v>391965363.39600003</v>
       </c>
       <c r="T171" s="9">
-        <v>0.0713648129062</v>
+        <v>7.1364812906200004E-2</v>
       </c>
       <c r="U171" s="9"/>
       <c r="V171" s="4"/>
       <c r="W171" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="19.5">
+    <row r="172" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -6968,36 +7124,36 @@
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="G172" s="9">
-        <v>558776881.07</v>
+        <v>558776881.07000005</v>
       </c>
       <c r="H172" s="9">
-        <v>0.0717298571549</v>
+        <v>7.1729857154900004E-2</v>
       </c>
       <c r="I172" s="9"/>
       <c r="J172" s="4"/>
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
       <c r="M172" s="9">
-        <v>910418220.556</v>
+        <v>910418220.55599999</v>
       </c>
       <c r="N172" s="9">
-        <v>0.0715199711025</v>
+        <v>7.1519971102499996E-2</v>
       </c>
       <c r="O172" s="9"/>
       <c r="P172" s="4"/>
       <c r="Q172" s="1"/>
       <c r="R172" s="1"/>
       <c r="S172" s="9">
-        <v>392370894.419</v>
+        <v>392370894.41900003</v>
       </c>
       <c r="T172" s="9">
-        <v>0.071831626958</v>
+        <v>7.1831626957999994E-2</v>
       </c>
       <c r="U172" s="9"/>
       <c r="V172" s="4"/>
       <c r="W172" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="19.5">
+    <row r="173" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -7005,36 +7161,36 @@
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="G173" s="9">
-        <v>559709388.322</v>
+        <v>559709388.32200003</v>
       </c>
       <c r="H173" s="9">
-        <v>0.0721961834178</v>
+        <v>7.21961834178E-2</v>
       </c>
       <c r="I173" s="9"/>
       <c r="J173" s="4"/>
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
       <c r="M173" s="9">
-        <v>913118061.089</v>
+        <v>913118061.08899999</v>
       </c>
       <c r="N173" s="9">
-        <v>0.071985432353</v>
+        <v>7.1985432353000006E-2</v>
       </c>
       <c r="O173" s="9"/>
       <c r="P173" s="4"/>
       <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
       <c r="S173" s="9">
-        <v>392772681.393</v>
+        <v>392772681.39300001</v>
       </c>
       <c r="T173" s="9">
-        <v>0.0722982241623</v>
+        <v>7.2298224162300001E-2</v>
       </c>
       <c r="U173" s="9"/>
       <c r="V173" s="4"/>
       <c r="W173" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="19.5">
+    <row r="174" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -7042,36 +7198,36 @@
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="G174" s="9">
-        <v>560634357.407</v>
+        <v>560634357.40699995</v>
       </c>
       <c r="H174" s="9">
-        <v>0.0726622957966</v>
+        <v>7.2662295796599996E-2</v>
       </c>
       <c r="I174" s="9"/>
       <c r="J174" s="4"/>
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
       <c r="M174" s="9">
-        <v>915803578.126</v>
+        <v>915803578.12600005</v>
       </c>
       <c r="N174" s="9">
-        <v>0.0724506858526</v>
+        <v>7.2450685852600005E-2</v>
       </c>
       <c r="O174" s="9"/>
       <c r="P174" s="4"/>
       <c r="Q174" s="1"/>
       <c r="R174" s="1"/>
       <c r="S174" s="9">
-        <v>393171113.121</v>
+        <v>393171113.12099999</v>
       </c>
       <c r="T174" s="9">
-        <v>0.0727646049125</v>
+        <v>7.2764604912500003E-2</v>
       </c>
       <c r="U174" s="9"/>
       <c r="V174" s="4"/>
       <c r="W174" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="19.5">
+    <row r="175" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -7079,36 +7235,36 @@
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="G175" s="9">
-        <v>561551875.491</v>
+        <v>561551875.49100006</v>
       </c>
       <c r="H175" s="9">
-        <v>0.0731281942938</v>
+        <v>7.3128194293800006E-2</v>
       </c>
       <c r="I175" s="9"/>
       <c r="J175" s="4"/>
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
       <c r="M175" s="9">
-        <v>918474891.777</v>
+        <v>918474891.77699995</v>
       </c>
       <c r="N175" s="9">
-        <v>0.0729157313217</v>
+        <v>7.2915731321699997E-2</v>
       </c>
       <c r="O175" s="9"/>
       <c r="P175" s="4"/>
       <c r="Q175" s="1"/>
       <c r="R175" s="1"/>
       <c r="S175" s="9">
-        <v>393566034.999</v>
+        <v>393566034.99900001</v>
       </c>
       <c r="T175" s="9">
-        <v>0.0732307642088</v>
+        <v>7.3230764208799995E-2</v>
       </c>
       <c r="U175" s="9"/>
       <c r="V175" s="4"/>
       <c r="W175" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="19.5">
+    <row r="176" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -7116,36 +7272,36 @@
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="G176" s="9">
-        <v>562462033.156</v>
+        <v>562462033.15600002</v>
       </c>
       <c r="H176" s="9">
-        <v>0.0735938789002</v>
+        <v>7.3593878900199999E-2</v>
       </c>
       <c r="I176" s="9"/>
       <c r="J176" s="4"/>
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
       <c r="M176" s="9">
-        <v>921132112.621</v>
+        <v>921132112.62100005</v>
       </c>
       <c r="N176" s="9">
-        <v>0.0733805684849</v>
+        <v>7.3380568484900002E-2</v>
       </c>
       <c r="O176" s="9"/>
       <c r="P176" s="4"/>
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
       <c r="S176" s="9">
-        <v>393957669.061</v>
+        <v>393957669.06099999</v>
       </c>
       <c r="T176" s="9">
-        <v>0.0736966895636</v>
+        <v>7.3696689563599996E-2</v>
       </c>
       <c r="U176" s="9"/>
       <c r="V176" s="4"/>
       <c r="W176" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="19.5">
+    <row r="177" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -7153,20 +7309,20 @@
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="G177" s="9">
-        <v>563364923.747</v>
+        <v>563364923.74699998</v>
       </c>
       <c r="H177" s="9">
-        <v>0.0740593496055</v>
+        <v>7.4059349605499994E-2</v>
       </c>
       <c r="I177" s="9"/>
       <c r="J177" s="4"/>
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
       <c r="M177" s="9">
-        <v>923775343.758</v>
+        <v>923775343.75800002</v>
       </c>
       <c r="N177" s="9">
-        <v>0.0738451970634</v>
+        <v>7.3845197063399995E-2</v>
       </c>
       <c r="O177" s="9"/>
       <c r="P177" s="4"/>
@@ -7176,13 +7332,13 @@
         <v>394346267.796</v>
       </c>
       <c r="T177" s="9">
-        <v>0.0741623761053</v>
+        <v>7.4162376105300007E-2</v>
       </c>
       <c r="U177" s="9"/>
       <c r="V177" s="4"/>
       <c r="W177" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="19.5">
+    <row r="178" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -7190,36 +7346,36 @@
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="G178" s="9">
-        <v>564260642.059</v>
+        <v>564260642.05900002</v>
       </c>
       <c r="H178" s="9">
-        <v>0.0745246063998</v>
+        <v>7.4524606399800006E-2</v>
       </c>
       <c r="I178" s="9"/>
       <c r="J178" s="4"/>
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
       <c r="M178" s="9">
-        <v>926404678.258</v>
+        <v>926404678.25800002</v>
       </c>
       <c r="N178" s="9">
-        <v>0.0743096167787</v>
+        <v>7.4309616778700002E-2</v>
       </c>
       <c r="O178" s="9"/>
       <c r="P178" s="4"/>
       <c r="Q178" s="1"/>
       <c r="R178" s="1"/>
       <c r="S178" s="9">
-        <v>394731619.001</v>
+        <v>394731619.00099999</v>
       </c>
       <c r="T178" s="9">
-        <v>0.0746278288185</v>
+        <v>7.4627828818499997E-2</v>
       </c>
       <c r="U178" s="9"/>
       <c r="V178" s="4"/>
       <c r="W178" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="19.5">
+    <row r="179" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -7227,36 +7383,36 @@
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="9">
-        <v>565149285.513</v>
+        <v>565149285.51300001</v>
       </c>
       <c r="H179" s="9">
-        <v>0.0749896492723</v>
+        <v>7.4989649272299994E-2</v>
       </c>
       <c r="I179" s="9"/>
       <c r="J179" s="4"/>
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
       <c r="M179" s="9">
-        <v>929020204.935</v>
+        <v>929020204.93499994</v>
       </c>
       <c r="N179" s="9">
-        <v>0.0747738273416</v>
+        <v>7.4773827341599999E-2</v>
       </c>
       <c r="O179" s="9"/>
       <c r="P179" s="4"/>
       <c r="Q179" s="1"/>
       <c r="R179" s="1"/>
       <c r="S179" s="9">
-        <v>395113482.467</v>
+        <v>395113482.46700001</v>
       </c>
       <c r="T179" s="9">
-        <v>0.0750930514324</v>
+        <v>7.5093051432399999E-2</v>
       </c>
       <c r="U179" s="9"/>
       <c r="V179" s="4"/>
       <c r="W179" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5">
+    <row r="180" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -7264,36 +7420,36 @@
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="9">
-        <v>566030953.526</v>
+        <v>566030953.52600002</v>
       </c>
       <c r="H180" s="9">
-        <v>0.075454478216</v>
+        <v>7.5454478216000001E-2</v>
       </c>
       <c r="I180" s="9"/>
       <c r="J180" s="4"/>
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
       <c r="M180" s="9">
-        <v>931622008.35</v>
+        <v>931622008.35000002</v>
       </c>
       <c r="N180" s="9">
-        <v>0.0752378284447</v>
+        <v>7.5237828444700006E-2</v>
       </c>
       <c r="O180" s="9"/>
       <c r="P180" s="4"/>
       <c r="Q180" s="1"/>
       <c r="R180" s="1"/>
       <c r="S180" s="9">
-        <v>395491729.478</v>
+        <v>395491729.47799999</v>
       </c>
       <c r="T180" s="9">
-        <v>0.0755580508334</v>
+        <v>7.5558050833400003E-2</v>
       </c>
       <c r="U180" s="9"/>
       <c r="V180" s="4"/>
       <c r="W180" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="19.5">
+    <row r="181" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -7301,36 +7457,36 @@
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="9">
-        <v>566905745.933</v>
+        <v>566905745.93299997</v>
       </c>
       <c r="H181" s="9">
-        <v>0.0759190932155</v>
+        <v>7.59190932155E-2</v>
       </c>
       <c r="I181" s="9"/>
       <c r="J181" s="4"/>
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
       <c r="M181" s="9">
-        <v>934210169.111</v>
+        <v>934210169.11099994</v>
       </c>
       <c r="N181" s="9">
-        <v>0.0757016197636</v>
+        <v>7.57016197636E-2</v>
       </c>
       <c r="O181" s="9"/>
       <c r="P181" s="4"/>
       <c r="Q181" s="1"/>
       <c r="R181" s="1"/>
       <c r="S181" s="9">
-        <v>395866404.089</v>
+        <v>395866404.08899999</v>
       </c>
       <c r="T181" s="9">
-        <v>0.0760228323078</v>
+        <v>7.6022832307800006E-2</v>
       </c>
       <c r="U181" s="9"/>
       <c r="V181" s="4"/>
       <c r="W181" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="19.5">
+    <row r="182" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -7338,36 +7494,36 @@
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="G182" s="9">
-        <v>567773763.327</v>
+        <v>567773763.32700002</v>
       </c>
       <c r="H182" s="9">
-        <v>0.0763834942438</v>
+        <v>7.6383494243800004E-2</v>
       </c>
       <c r="I182" s="9"/>
       <c r="J182" s="4"/>
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
       <c r="M182" s="9">
-        <v>936784767.77</v>
+        <v>936784767.76999998</v>
       </c>
       <c r="N182" s="9">
-        <v>0.0761652009512</v>
+        <v>7.6165200951199996E-2</v>
       </c>
       <c r="O182" s="9"/>
       <c r="P182" s="4"/>
       <c r="Q182" s="1"/>
       <c r="R182" s="1"/>
       <c r="S182" s="9">
-        <v>396237537.242</v>
+        <v>396237537.24199998</v>
       </c>
       <c r="T182" s="9">
-        <v>0.0764873955744</v>
+        <v>7.6487395574399999E-2</v>
       </c>
       <c r="U182" s="9"/>
       <c r="V182" s="4"/>
       <c r="W182" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5">
+    <row r="183" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -7375,36 +7531,43 @@
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
       <c r="G183" s="9">
-        <v>568635104.673</v>
+        <v>568635104.67299998</v>
       </c>
       <c r="H183" s="9">
-        <v>0.0768476812523</v>
+        <v>7.6847681252300001E-2</v>
       </c>
       <c r="I183" s="9"/>
       <c r="J183" s="4"/>
       <c r="K183" s="1"/>
       <c r="L183" s="1"/>
       <c r="M183" s="9">
-        <v>939345883.389</v>
+        <v>939345883.38900006</v>
       </c>
       <c r="N183" s="9">
-        <v>0.0766285716351</v>
+        <v>7.6628571635100007E-2</v>
       </c>
       <c r="O183" s="9"/>
       <c r="P183" s="4"/>
       <c r="Q183" s="1"/>
       <c r="R183" s="1"/>
       <c r="S183" s="9">
-        <v>396605264.063</v>
+        <v>396605264.06300002</v>
       </c>
       <c r="T183" s="9">
-        <v>0.0769517393997</v>
+        <v>7.69517393997E-2</v>
       </c>
       <c r="U183" s="9"/>
       <c r="V183" s="4"/>
       <c r="W183" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="Z9:AA9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>